--- a/Element Profiles/PTZ Camera-Element_Profile.xlsx
+++ b/Element Profiles/PTZ Camera-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2227025B-EF3D-0644-A69F-DAE3B5FD967E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8476F-56A4-A74B-AD09-47D6DFBD0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="27320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6820" yWindow="760" windowWidth="34400" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7682" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7721" uniqueCount="192">
   <si>
     <t>Export date: Aug 14, 2023</t>
   </si>
@@ -559,12 +559,63 @@
   <si>
     <t>LIC-CAM-10Y</t>
   </si>
+  <si>
+    <t>1–Year Camera License for Government</t>
+  </si>
+  <si>
+    <t>3–Year Camera License for Government</t>
+  </si>
+  <si>
+    <t>5–Year Camera License for Government</t>
+  </si>
+  <si>
+    <t>10–Year Camera License for Government</t>
+  </si>
+  <si>
+    <t>LIC-CAM-1Y-G</t>
+  </si>
+  <si>
+    <t>LIC-CAM-3Y-G</t>
+  </si>
+  <si>
+    <t>LIC-CAM-5Y-G</t>
+  </si>
+  <si>
+    <t>LIC-CAM-10Y-G</t>
+  </si>
+  <si>
+    <t>Accessory9</t>
+  </si>
+  <si>
+    <t>Accessory10</t>
+  </si>
+  <si>
+    <t>Accessory11</t>
+  </si>
+  <si>
+    <t>Accessory12</t>
+  </si>
+  <si>
+    <t>CP52-E-F 5MP IR Outdoor FIPS PTZ Camera</t>
+  </si>
+  <si>
+    <t>CP52-E-F</t>
+  </si>
+  <si>
+    <t>https://www.verkada.com/security-cameras/ptz/cp52-e-f/</t>
+  </si>
+  <si>
+    <t>CP52-E-F Product Page</t>
+  </si>
+  <si>
+    <t>https://www.verkada.com/security-cameras/ptz/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +643,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -761,11 +818,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,6 +825,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1083,7 +1140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C94" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1098,1015 +1157,1015 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
-      <c r="IW1" s="14"/>
-      <c r="IX1" s="14"/>
-      <c r="IY1" s="14"/>
-      <c r="IZ1" s="14"/>
-      <c r="JA1" s="14"/>
-      <c r="JB1" s="14"/>
-      <c r="JC1" s="14"/>
-      <c r="JD1" s="14"/>
-      <c r="JE1" s="14"/>
-      <c r="JF1" s="14"/>
-      <c r="JG1" s="14"/>
-      <c r="JH1" s="14"/>
-      <c r="JI1" s="14"/>
-      <c r="JJ1" s="14"/>
-      <c r="JK1" s="14"/>
-      <c r="JL1" s="14"/>
-      <c r="JM1" s="14"/>
-      <c r="JN1" s="14"/>
-      <c r="JO1" s="14"/>
-      <c r="JP1" s="14"/>
-      <c r="JQ1" s="14"/>
-      <c r="JR1" s="14"/>
-      <c r="JS1" s="14"/>
-      <c r="JT1" s="14"/>
-      <c r="JU1" s="14"/>
-      <c r="JV1" s="14"/>
-      <c r="JW1" s="14"/>
-      <c r="JX1" s="14"/>
-      <c r="JY1" s="14"/>
-      <c r="JZ1" s="14"/>
-      <c r="KA1" s="14"/>
-      <c r="KB1" s="14"/>
-      <c r="KC1" s="14"/>
-      <c r="KD1" s="14"/>
-      <c r="KE1" s="14"/>
-      <c r="KF1" s="14"/>
-      <c r="KG1" s="14"/>
-      <c r="KH1" s="14"/>
-      <c r="KI1" s="14"/>
-      <c r="KJ1" s="14"/>
-      <c r="KK1" s="14"/>
-      <c r="KL1" s="14"/>
-      <c r="KM1" s="14"/>
-      <c r="KN1" s="14"/>
-      <c r="KO1" s="14"/>
-      <c r="KP1" s="14"/>
-      <c r="KQ1" s="14"/>
-      <c r="KR1" s="14"/>
-      <c r="KS1" s="14"/>
-      <c r="KT1" s="14"/>
-      <c r="KU1" s="14"/>
-      <c r="KV1" s="14"/>
-      <c r="KW1" s="14"/>
-      <c r="KX1" s="14"/>
-      <c r="KY1" s="14"/>
-      <c r="KZ1" s="14"/>
-      <c r="LA1" s="14"/>
-      <c r="LB1" s="14"/>
-      <c r="LC1" s="14"/>
-      <c r="LD1" s="14"/>
-      <c r="LE1" s="14"/>
-      <c r="LF1" s="14"/>
-      <c r="LG1" s="14"/>
-      <c r="LH1" s="14"/>
-      <c r="LI1" s="14"/>
-      <c r="LJ1" s="14"/>
-      <c r="LK1" s="14"/>
-      <c r="LL1" s="14"/>
-      <c r="LM1" s="14"/>
-      <c r="LN1" s="14"/>
-      <c r="LO1" s="14"/>
-      <c r="LP1" s="14"/>
-      <c r="LQ1" s="14"/>
-      <c r="LR1" s="14"/>
-      <c r="LS1" s="14"/>
-      <c r="LT1" s="14"/>
-      <c r="LU1" s="14"/>
-      <c r="LV1" s="14"/>
-      <c r="LW1" s="14"/>
-      <c r="LX1" s="14"/>
-      <c r="LY1" s="14"/>
-      <c r="LZ1" s="14"/>
-      <c r="MA1" s="14"/>
-      <c r="MB1" s="14"/>
-      <c r="MC1" s="14"/>
-      <c r="MD1" s="14"/>
-      <c r="ME1" s="14"/>
-      <c r="MF1" s="14"/>
-      <c r="MG1" s="14"/>
-      <c r="MH1" s="14"/>
-      <c r="MI1" s="14"/>
-      <c r="MJ1" s="14"/>
-      <c r="MK1" s="14"/>
-      <c r="ML1" s="14"/>
-      <c r="MM1" s="14"/>
-      <c r="MN1" s="14"/>
-      <c r="MO1" s="14"/>
-      <c r="MP1" s="14"/>
-      <c r="MQ1" s="14"/>
-      <c r="MR1" s="14"/>
-      <c r="MS1" s="14"/>
-      <c r="MT1" s="14"/>
-      <c r="MU1" s="14"/>
-      <c r="MV1" s="14"/>
-      <c r="MW1" s="14"/>
-      <c r="MX1" s="14"/>
-      <c r="MY1" s="14"/>
-      <c r="MZ1" s="14"/>
-      <c r="NA1" s="14"/>
-      <c r="NB1" s="14"/>
-      <c r="NC1" s="14"/>
-      <c r="ND1" s="14"/>
-      <c r="NE1" s="14"/>
-      <c r="NF1" s="14"/>
-      <c r="NG1" s="14"/>
-      <c r="NH1" s="14"/>
-      <c r="NI1" s="14"/>
-      <c r="NJ1" s="14"/>
-      <c r="NK1" s="14"/>
-      <c r="NL1" s="14"/>
-      <c r="NM1" s="14"/>
-      <c r="NN1" s="14"/>
-      <c r="NO1" s="14"/>
-      <c r="NP1" s="14"/>
-      <c r="NQ1" s="14"/>
-      <c r="NR1" s="14"/>
-      <c r="NS1" s="14"/>
-      <c r="NT1" s="14"/>
-      <c r="NU1" s="14"/>
-      <c r="NV1" s="14"/>
-      <c r="NW1" s="14"/>
-      <c r="NX1" s="14"/>
-      <c r="NY1" s="14"/>
-      <c r="NZ1" s="14"/>
-      <c r="OA1" s="14"/>
-      <c r="OB1" s="14"/>
-      <c r="OC1" s="14"/>
-      <c r="OD1" s="14"/>
-      <c r="OE1" s="14"/>
-      <c r="OF1" s="14"/>
-      <c r="OG1" s="14"/>
-      <c r="OH1" s="14"/>
-      <c r="OI1" s="14"/>
-      <c r="OJ1" s="14"/>
-      <c r="OK1" s="14"/>
-      <c r="OL1" s="14"/>
-      <c r="OM1" s="14"/>
-      <c r="ON1" s="14"/>
-      <c r="OO1" s="14"/>
-      <c r="OP1" s="14"/>
-      <c r="OQ1" s="14"/>
-      <c r="OR1" s="14"/>
-      <c r="OS1" s="14"/>
-      <c r="OT1" s="14"/>
-      <c r="OU1" s="14"/>
-      <c r="OV1" s="14"/>
-      <c r="OW1" s="14"/>
-      <c r="OX1" s="14"/>
-      <c r="OY1" s="14"/>
-      <c r="OZ1" s="14"/>
-      <c r="PA1" s="14"/>
-      <c r="PB1" s="14"/>
-      <c r="PC1" s="14"/>
-      <c r="PD1" s="14"/>
-      <c r="PE1" s="14"/>
-      <c r="PF1" s="14"/>
-      <c r="PG1" s="14"/>
-      <c r="PH1" s="14"/>
-      <c r="PI1" s="14"/>
-      <c r="PJ1" s="14"/>
-      <c r="PK1" s="14"/>
-      <c r="PL1" s="14"/>
-      <c r="PM1" s="14"/>
-      <c r="PN1" s="14"/>
-      <c r="PO1" s="14"/>
-      <c r="PP1" s="14"/>
-      <c r="PQ1" s="14"/>
-      <c r="PR1" s="14"/>
-      <c r="PS1" s="14"/>
-      <c r="PT1" s="14"/>
-      <c r="PU1" s="14"/>
-      <c r="PV1" s="14"/>
-      <c r="PW1" s="14"/>
-      <c r="PX1" s="14"/>
-      <c r="PY1" s="14"/>
-      <c r="PZ1" s="14"/>
-      <c r="QA1" s="14"/>
-      <c r="QB1" s="14"/>
-      <c r="QC1" s="14"/>
-      <c r="QD1" s="14"/>
-      <c r="QE1" s="14"/>
-      <c r="QF1" s="14"/>
-      <c r="QG1" s="14"/>
-      <c r="QH1" s="14"/>
-      <c r="QI1" s="14"/>
-      <c r="QJ1" s="14"/>
-      <c r="QK1" s="14"/>
-      <c r="QL1" s="14"/>
-      <c r="QM1" s="14"/>
-      <c r="QN1" s="14"/>
-      <c r="QO1" s="14"/>
-      <c r="QP1" s="14"/>
-      <c r="QQ1" s="14"/>
-      <c r="QR1" s="14"/>
-      <c r="QS1" s="14"/>
-      <c r="QT1" s="14"/>
-      <c r="QU1" s="14"/>
-      <c r="QV1" s="14"/>
-      <c r="QW1" s="14"/>
-      <c r="QX1" s="14"/>
-      <c r="QY1" s="14"/>
-      <c r="QZ1" s="14"/>
-      <c r="RA1" s="14"/>
-      <c r="RB1" s="14"/>
-      <c r="RC1" s="14"/>
-      <c r="RD1" s="14"/>
-      <c r="RE1" s="14"/>
-      <c r="RF1" s="14"/>
-      <c r="RG1" s="14"/>
-      <c r="RH1" s="14"/>
-      <c r="RI1" s="14"/>
-      <c r="RJ1" s="14"/>
-      <c r="RK1" s="14"/>
-      <c r="RL1" s="14"/>
-      <c r="RM1" s="14"/>
-      <c r="RN1" s="14"/>
-      <c r="RO1" s="14"/>
-      <c r="RP1" s="14"/>
-      <c r="RQ1" s="14"/>
-      <c r="RR1" s="14"/>
-      <c r="RS1" s="14"/>
-      <c r="RT1" s="14"/>
-      <c r="RU1" s="14"/>
-      <c r="RV1" s="14"/>
-      <c r="RW1" s="14"/>
-      <c r="RX1" s="14"/>
-      <c r="RY1" s="14"/>
-      <c r="RZ1" s="14"/>
-      <c r="SA1" s="14"/>
-      <c r="SB1" s="14"/>
-      <c r="SC1" s="14"/>
-      <c r="SD1" s="14"/>
-      <c r="SE1" s="14"/>
-      <c r="SF1" s="14"/>
-      <c r="SG1" s="14"/>
-      <c r="SH1" s="14"/>
-      <c r="SI1" s="14"/>
-      <c r="SJ1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
+      <c r="DC1" s="17"/>
+      <c r="DD1" s="17"/>
+      <c r="DE1" s="17"/>
+      <c r="DF1" s="17"/>
+      <c r="DG1" s="17"/>
+      <c r="DH1" s="17"/>
+      <c r="DI1" s="17"/>
+      <c r="DJ1" s="17"/>
+      <c r="DK1" s="17"/>
+      <c r="DL1" s="17"/>
+      <c r="DM1" s="17"/>
+      <c r="DN1" s="17"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="17"/>
+      <c r="DS1" s="17"/>
+      <c r="DT1" s="17"/>
+      <c r="DU1" s="17"/>
+      <c r="DV1" s="17"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="17"/>
+      <c r="DY1" s="17"/>
+      <c r="DZ1" s="17"/>
+      <c r="EA1" s="17"/>
+      <c r="EB1" s="17"/>
+      <c r="EC1" s="17"/>
+      <c r="ED1" s="17"/>
+      <c r="EE1" s="17"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="17"/>
+      <c r="EJ1" s="17"/>
+      <c r="EK1" s="17"/>
+      <c r="EL1" s="17"/>
+      <c r="EM1" s="17"/>
+      <c r="EN1" s="17"/>
+      <c r="EO1" s="17"/>
+      <c r="EP1" s="17"/>
+      <c r="EQ1" s="17"/>
+      <c r="ER1" s="17"/>
+      <c r="ES1" s="17"/>
+      <c r="ET1" s="17"/>
+      <c r="EU1" s="17"/>
+      <c r="EV1" s="17"/>
+      <c r="EW1" s="17"/>
+      <c r="EX1" s="17"/>
+      <c r="EY1" s="17"/>
+      <c r="EZ1" s="17"/>
+      <c r="FA1" s="17"/>
+      <c r="FB1" s="17"/>
+      <c r="FC1" s="17"/>
+      <c r="FD1" s="17"/>
+      <c r="FE1" s="17"/>
+      <c r="FF1" s="17"/>
+      <c r="FG1" s="17"/>
+      <c r="FH1" s="17"/>
+      <c r="FI1" s="17"/>
+      <c r="FJ1" s="17"/>
+      <c r="FK1" s="17"/>
+      <c r="FL1" s="17"/>
+      <c r="FM1" s="17"/>
+      <c r="FN1" s="17"/>
+      <c r="FO1" s="17"/>
+      <c r="FP1" s="17"/>
+      <c r="FQ1" s="17"/>
+      <c r="FR1" s="17"/>
+      <c r="FS1" s="17"/>
+      <c r="FT1" s="17"/>
+      <c r="FU1" s="17"/>
+      <c r="FV1" s="17"/>
+      <c r="FW1" s="17"/>
+      <c r="FX1" s="17"/>
+      <c r="FY1" s="17"/>
+      <c r="FZ1" s="17"/>
+      <c r="GA1" s="17"/>
+      <c r="GB1" s="17"/>
+      <c r="GC1" s="17"/>
+      <c r="GD1" s="17"/>
+      <c r="GE1" s="17"/>
+      <c r="GF1" s="17"/>
+      <c r="GG1" s="17"/>
+      <c r="GH1" s="17"/>
+      <c r="GI1" s="17"/>
+      <c r="GJ1" s="17"/>
+      <c r="GK1" s="17"/>
+      <c r="GL1" s="17"/>
+      <c r="GM1" s="17"/>
+      <c r="GN1" s="17"/>
+      <c r="GO1" s="17"/>
+      <c r="GP1" s="17"/>
+      <c r="GQ1" s="17"/>
+      <c r="GR1" s="17"/>
+      <c r="GS1" s="17"/>
+      <c r="GT1" s="17"/>
+      <c r="GU1" s="17"/>
+      <c r="GV1" s="17"/>
+      <c r="GW1" s="17"/>
+      <c r="GX1" s="17"/>
+      <c r="GY1" s="17"/>
+      <c r="GZ1" s="17"/>
+      <c r="HA1" s="17"/>
+      <c r="HB1" s="17"/>
+      <c r="HC1" s="17"/>
+      <c r="HD1" s="17"/>
+      <c r="HE1" s="17"/>
+      <c r="HF1" s="17"/>
+      <c r="HG1" s="17"/>
+      <c r="HH1" s="17"/>
+      <c r="HI1" s="17"/>
+      <c r="HJ1" s="17"/>
+      <c r="HK1" s="17"/>
+      <c r="HL1" s="17"/>
+      <c r="HM1" s="17"/>
+      <c r="HN1" s="17"/>
+      <c r="HO1" s="17"/>
+      <c r="HP1" s="17"/>
+      <c r="HQ1" s="17"/>
+      <c r="HR1" s="17"/>
+      <c r="HS1" s="17"/>
+      <c r="HT1" s="17"/>
+      <c r="HU1" s="17"/>
+      <c r="HV1" s="17"/>
+      <c r="HW1" s="17"/>
+      <c r="HX1" s="17"/>
+      <c r="HY1" s="17"/>
+      <c r="HZ1" s="17"/>
+      <c r="IA1" s="17"/>
+      <c r="IB1" s="17"/>
+      <c r="IC1" s="17"/>
+      <c r="ID1" s="17"/>
+      <c r="IE1" s="17"/>
+      <c r="IF1" s="17"/>
+      <c r="IG1" s="17"/>
+      <c r="IH1" s="17"/>
+      <c r="II1" s="17"/>
+      <c r="IJ1" s="17"/>
+      <c r="IK1" s="17"/>
+      <c r="IL1" s="17"/>
+      <c r="IM1" s="17"/>
+      <c r="IN1" s="17"/>
+      <c r="IO1" s="17"/>
+      <c r="IP1" s="17"/>
+      <c r="IQ1" s="17"/>
+      <c r="IR1" s="17"/>
+      <c r="IS1" s="17"/>
+      <c r="IT1" s="17"/>
+      <c r="IU1" s="17"/>
+      <c r="IV1" s="17"/>
+      <c r="IW1" s="17"/>
+      <c r="IX1" s="17"/>
+      <c r="IY1" s="17"/>
+      <c r="IZ1" s="17"/>
+      <c r="JA1" s="17"/>
+      <c r="JB1" s="17"/>
+      <c r="JC1" s="17"/>
+      <c r="JD1" s="17"/>
+      <c r="JE1" s="17"/>
+      <c r="JF1" s="17"/>
+      <c r="JG1" s="17"/>
+      <c r="JH1" s="17"/>
+      <c r="JI1" s="17"/>
+      <c r="JJ1" s="17"/>
+      <c r="JK1" s="17"/>
+      <c r="JL1" s="17"/>
+      <c r="JM1" s="17"/>
+      <c r="JN1" s="17"/>
+      <c r="JO1" s="17"/>
+      <c r="JP1" s="17"/>
+      <c r="JQ1" s="17"/>
+      <c r="JR1" s="17"/>
+      <c r="JS1" s="17"/>
+      <c r="JT1" s="17"/>
+      <c r="JU1" s="17"/>
+      <c r="JV1" s="17"/>
+      <c r="JW1" s="17"/>
+      <c r="JX1" s="17"/>
+      <c r="JY1" s="17"/>
+      <c r="JZ1" s="17"/>
+      <c r="KA1" s="17"/>
+      <c r="KB1" s="17"/>
+      <c r="KC1" s="17"/>
+      <c r="KD1" s="17"/>
+      <c r="KE1" s="17"/>
+      <c r="KF1" s="17"/>
+      <c r="KG1" s="17"/>
+      <c r="KH1" s="17"/>
+      <c r="KI1" s="17"/>
+      <c r="KJ1" s="17"/>
+      <c r="KK1" s="17"/>
+      <c r="KL1" s="17"/>
+      <c r="KM1" s="17"/>
+      <c r="KN1" s="17"/>
+      <c r="KO1" s="17"/>
+      <c r="KP1" s="17"/>
+      <c r="KQ1" s="17"/>
+      <c r="KR1" s="17"/>
+      <c r="KS1" s="17"/>
+      <c r="KT1" s="17"/>
+      <c r="KU1" s="17"/>
+      <c r="KV1" s="17"/>
+      <c r="KW1" s="17"/>
+      <c r="KX1" s="17"/>
+      <c r="KY1" s="17"/>
+      <c r="KZ1" s="17"/>
+      <c r="LA1" s="17"/>
+      <c r="LB1" s="17"/>
+      <c r="LC1" s="17"/>
+      <c r="LD1" s="17"/>
+      <c r="LE1" s="17"/>
+      <c r="LF1" s="17"/>
+      <c r="LG1" s="17"/>
+      <c r="LH1" s="17"/>
+      <c r="LI1" s="17"/>
+      <c r="LJ1" s="17"/>
+      <c r="LK1" s="17"/>
+      <c r="LL1" s="17"/>
+      <c r="LM1" s="17"/>
+      <c r="LN1" s="17"/>
+      <c r="LO1" s="17"/>
+      <c r="LP1" s="17"/>
+      <c r="LQ1" s="17"/>
+      <c r="LR1" s="17"/>
+      <c r="LS1" s="17"/>
+      <c r="LT1" s="17"/>
+      <c r="LU1" s="17"/>
+      <c r="LV1" s="17"/>
+      <c r="LW1" s="17"/>
+      <c r="LX1" s="17"/>
+      <c r="LY1" s="17"/>
+      <c r="LZ1" s="17"/>
+      <c r="MA1" s="17"/>
+      <c r="MB1" s="17"/>
+      <c r="MC1" s="17"/>
+      <c r="MD1" s="17"/>
+      <c r="ME1" s="17"/>
+      <c r="MF1" s="17"/>
+      <c r="MG1" s="17"/>
+      <c r="MH1" s="17"/>
+      <c r="MI1" s="17"/>
+      <c r="MJ1" s="17"/>
+      <c r="MK1" s="17"/>
+      <c r="ML1" s="17"/>
+      <c r="MM1" s="17"/>
+      <c r="MN1" s="17"/>
+      <c r="MO1" s="17"/>
+      <c r="MP1" s="17"/>
+      <c r="MQ1" s="17"/>
+      <c r="MR1" s="17"/>
+      <c r="MS1" s="17"/>
+      <c r="MT1" s="17"/>
+      <c r="MU1" s="17"/>
+      <c r="MV1" s="17"/>
+      <c r="MW1" s="17"/>
+      <c r="MX1" s="17"/>
+      <c r="MY1" s="17"/>
+      <c r="MZ1" s="17"/>
+      <c r="NA1" s="17"/>
+      <c r="NB1" s="17"/>
+      <c r="NC1" s="17"/>
+      <c r="ND1" s="17"/>
+      <c r="NE1" s="17"/>
+      <c r="NF1" s="17"/>
+      <c r="NG1" s="17"/>
+      <c r="NH1" s="17"/>
+      <c r="NI1" s="17"/>
+      <c r="NJ1" s="17"/>
+      <c r="NK1" s="17"/>
+      <c r="NL1" s="17"/>
+      <c r="NM1" s="17"/>
+      <c r="NN1" s="17"/>
+      <c r="NO1" s="17"/>
+      <c r="NP1" s="17"/>
+      <c r="NQ1" s="17"/>
+      <c r="NR1" s="17"/>
+      <c r="NS1" s="17"/>
+      <c r="NT1" s="17"/>
+      <c r="NU1" s="17"/>
+      <c r="NV1" s="17"/>
+      <c r="NW1" s="17"/>
+      <c r="NX1" s="17"/>
+      <c r="NY1" s="17"/>
+      <c r="NZ1" s="17"/>
+      <c r="OA1" s="17"/>
+      <c r="OB1" s="17"/>
+      <c r="OC1" s="17"/>
+      <c r="OD1" s="17"/>
+      <c r="OE1" s="17"/>
+      <c r="OF1" s="17"/>
+      <c r="OG1" s="17"/>
+      <c r="OH1" s="17"/>
+      <c r="OI1" s="17"/>
+      <c r="OJ1" s="17"/>
+      <c r="OK1" s="17"/>
+      <c r="OL1" s="17"/>
+      <c r="OM1" s="17"/>
+      <c r="ON1" s="17"/>
+      <c r="OO1" s="17"/>
+      <c r="OP1" s="17"/>
+      <c r="OQ1" s="17"/>
+      <c r="OR1" s="17"/>
+      <c r="OS1" s="17"/>
+      <c r="OT1" s="17"/>
+      <c r="OU1" s="17"/>
+      <c r="OV1" s="17"/>
+      <c r="OW1" s="17"/>
+      <c r="OX1" s="17"/>
+      <c r="OY1" s="17"/>
+      <c r="OZ1" s="17"/>
+      <c r="PA1" s="17"/>
+      <c r="PB1" s="17"/>
+      <c r="PC1" s="17"/>
+      <c r="PD1" s="17"/>
+      <c r="PE1" s="17"/>
+      <c r="PF1" s="17"/>
+      <c r="PG1" s="17"/>
+      <c r="PH1" s="17"/>
+      <c r="PI1" s="17"/>
+      <c r="PJ1" s="17"/>
+      <c r="PK1" s="17"/>
+      <c r="PL1" s="17"/>
+      <c r="PM1" s="17"/>
+      <c r="PN1" s="17"/>
+      <c r="PO1" s="17"/>
+      <c r="PP1" s="17"/>
+      <c r="PQ1" s="17"/>
+      <c r="PR1" s="17"/>
+      <c r="PS1" s="17"/>
+      <c r="PT1" s="17"/>
+      <c r="PU1" s="17"/>
+      <c r="PV1" s="17"/>
+      <c r="PW1" s="17"/>
+      <c r="PX1" s="17"/>
+      <c r="PY1" s="17"/>
+      <c r="PZ1" s="17"/>
+      <c r="QA1" s="17"/>
+      <c r="QB1" s="17"/>
+      <c r="QC1" s="17"/>
+      <c r="QD1" s="17"/>
+      <c r="QE1" s="17"/>
+      <c r="QF1" s="17"/>
+      <c r="QG1" s="17"/>
+      <c r="QH1" s="17"/>
+      <c r="QI1" s="17"/>
+      <c r="QJ1" s="17"/>
+      <c r="QK1" s="17"/>
+      <c r="QL1" s="17"/>
+      <c r="QM1" s="17"/>
+      <c r="QN1" s="17"/>
+      <c r="QO1" s="17"/>
+      <c r="QP1" s="17"/>
+      <c r="QQ1" s="17"/>
+      <c r="QR1" s="17"/>
+      <c r="QS1" s="17"/>
+      <c r="QT1" s="17"/>
+      <c r="QU1" s="17"/>
+      <c r="QV1" s="17"/>
+      <c r="QW1" s="17"/>
+      <c r="QX1" s="17"/>
+      <c r="QY1" s="17"/>
+      <c r="QZ1" s="17"/>
+      <c r="RA1" s="17"/>
+      <c r="RB1" s="17"/>
+      <c r="RC1" s="17"/>
+      <c r="RD1" s="17"/>
+      <c r="RE1" s="17"/>
+      <c r="RF1" s="17"/>
+      <c r="RG1" s="17"/>
+      <c r="RH1" s="17"/>
+      <c r="RI1" s="17"/>
+      <c r="RJ1" s="17"/>
+      <c r="RK1" s="17"/>
+      <c r="RL1" s="17"/>
+      <c r="RM1" s="17"/>
+      <c r="RN1" s="17"/>
+      <c r="RO1" s="17"/>
+      <c r="RP1" s="17"/>
+      <c r="RQ1" s="17"/>
+      <c r="RR1" s="17"/>
+      <c r="RS1" s="17"/>
+      <c r="RT1" s="17"/>
+      <c r="RU1" s="17"/>
+      <c r="RV1" s="17"/>
+      <c r="RW1" s="17"/>
+      <c r="RX1" s="17"/>
+      <c r="RY1" s="17"/>
+      <c r="RZ1" s="17"/>
+      <c r="SA1" s="17"/>
+      <c r="SB1" s="17"/>
+      <c r="SC1" s="17"/>
+      <c r="SD1" s="17"/>
+      <c r="SE1" s="17"/>
+      <c r="SF1" s="17"/>
+      <c r="SG1" s="17"/>
+      <c r="SH1" s="17"/>
+      <c r="SI1" s="17"/>
+      <c r="SJ1" s="18"/>
     </row>
     <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14"/>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14"/>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14"/>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14"/>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14"/>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14"/>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14"/>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="14"/>
-      <c r="FQ2" s="14"/>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="14"/>
-      <c r="FT2" s="14"/>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="14"/>
-      <c r="FW2" s="14"/>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="14"/>
-      <c r="FZ2" s="14"/>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="14"/>
-      <c r="GC2" s="14"/>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="14"/>
-      <c r="GF2" s="14"/>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="14"/>
-      <c r="GI2" s="14"/>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="14"/>
-      <c r="GL2" s="14"/>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="14"/>
-      <c r="GO2" s="14"/>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="14"/>
-      <c r="GR2" s="14"/>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="14"/>
-      <c r="GU2" s="14"/>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="14"/>
-      <c r="GX2" s="14"/>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="14"/>
-      <c r="HA2" s="14"/>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="14"/>
-      <c r="HD2" s="14"/>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="14"/>
-      <c r="HG2" s="14"/>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="14"/>
-      <c r="HJ2" s="14"/>
-      <c r="HK2" s="14"/>
-      <c r="HL2" s="14"/>
-      <c r="HM2" s="14"/>
-      <c r="HN2" s="14"/>
-      <c r="HO2" s="14"/>
-      <c r="HP2" s="14"/>
-      <c r="HQ2" s="14"/>
-      <c r="HR2" s="14"/>
-      <c r="HS2" s="14"/>
-      <c r="HT2" s="14"/>
-      <c r="HU2" s="14"/>
-      <c r="HV2" s="14"/>
-      <c r="HW2" s="14"/>
-      <c r="HX2" s="14"/>
-      <c r="HY2" s="14"/>
-      <c r="HZ2" s="14"/>
-      <c r="IA2" s="14"/>
-      <c r="IB2" s="14"/>
-      <c r="IC2" s="14"/>
-      <c r="ID2" s="14"/>
-      <c r="IE2" s="14"/>
-      <c r="IF2" s="14"/>
-      <c r="IG2" s="14"/>
-      <c r="IH2" s="14"/>
-      <c r="II2" s="14"/>
-      <c r="IJ2" s="14"/>
-      <c r="IK2" s="14"/>
-      <c r="IL2" s="14"/>
-      <c r="IM2" s="14"/>
-      <c r="IN2" s="14"/>
-      <c r="IO2" s="14"/>
-      <c r="IP2" s="14"/>
-      <c r="IQ2" s="14"/>
-      <c r="IR2" s="14"/>
-      <c r="IS2" s="14"/>
-      <c r="IT2" s="14"/>
-      <c r="IU2" s="14"/>
-      <c r="IV2" s="14"/>
-      <c r="IW2" s="14"/>
-      <c r="IX2" s="14"/>
-      <c r="IY2" s="14"/>
-      <c r="IZ2" s="14"/>
-      <c r="JA2" s="14"/>
-      <c r="JB2" s="14"/>
-      <c r="JC2" s="14"/>
-      <c r="JD2" s="14"/>
-      <c r="JE2" s="14"/>
-      <c r="JF2" s="14"/>
-      <c r="JG2" s="14"/>
-      <c r="JH2" s="14"/>
-      <c r="JI2" s="14"/>
-      <c r="JJ2" s="14"/>
-      <c r="JK2" s="14"/>
-      <c r="JL2" s="14"/>
-      <c r="JM2" s="14"/>
-      <c r="JN2" s="14"/>
-      <c r="JO2" s="14"/>
-      <c r="JP2" s="14"/>
-      <c r="JQ2" s="14"/>
-      <c r="JR2" s="14"/>
-      <c r="JS2" s="14"/>
-      <c r="JT2" s="14"/>
-      <c r="JU2" s="14"/>
-      <c r="JV2" s="14"/>
-      <c r="JW2" s="14"/>
-      <c r="JX2" s="14"/>
-      <c r="JY2" s="14"/>
-      <c r="JZ2" s="14"/>
-      <c r="KA2" s="14"/>
-      <c r="KB2" s="14"/>
-      <c r="KC2" s="14"/>
-      <c r="KD2" s="14"/>
-      <c r="KE2" s="14"/>
-      <c r="KF2" s="14"/>
-      <c r="KG2" s="14"/>
-      <c r="KH2" s="14"/>
-      <c r="KI2" s="14"/>
-      <c r="KJ2" s="14"/>
-      <c r="KK2" s="14"/>
-      <c r="KL2" s="14"/>
-      <c r="KM2" s="14"/>
-      <c r="KN2" s="14"/>
-      <c r="KO2" s="14"/>
-      <c r="KP2" s="14"/>
-      <c r="KQ2" s="14"/>
-      <c r="KR2" s="14"/>
-      <c r="KS2" s="14"/>
-      <c r="KT2" s="14"/>
-      <c r="KU2" s="14"/>
-      <c r="KV2" s="14"/>
-      <c r="KW2" s="14"/>
-      <c r="KX2" s="14"/>
-      <c r="KY2" s="14"/>
-      <c r="KZ2" s="14"/>
-      <c r="LA2" s="14"/>
-      <c r="LB2" s="14"/>
-      <c r="LC2" s="14"/>
-      <c r="LD2" s="14"/>
-      <c r="LE2" s="14"/>
-      <c r="LF2" s="14"/>
-      <c r="LG2" s="14"/>
-      <c r="LH2" s="14"/>
-      <c r="LI2" s="14"/>
-      <c r="LJ2" s="14"/>
-      <c r="LK2" s="14"/>
-      <c r="LL2" s="14"/>
-      <c r="LM2" s="14"/>
-      <c r="LN2" s="14"/>
-      <c r="LO2" s="14"/>
-      <c r="LP2" s="14"/>
-      <c r="LQ2" s="14"/>
-      <c r="LR2" s="14"/>
-      <c r="LS2" s="14"/>
-      <c r="LT2" s="14"/>
-      <c r="LU2" s="14"/>
-      <c r="LV2" s="14"/>
-      <c r="LW2" s="14"/>
-      <c r="LX2" s="14"/>
-      <c r="LY2" s="14"/>
-      <c r="LZ2" s="14"/>
-      <c r="MA2" s="14"/>
-      <c r="MB2" s="14"/>
-      <c r="MC2" s="14"/>
-      <c r="MD2" s="14"/>
-      <c r="ME2" s="14"/>
-      <c r="MF2" s="14"/>
-      <c r="MG2" s="14"/>
-      <c r="MH2" s="14"/>
-      <c r="MI2" s="14"/>
-      <c r="MJ2" s="14"/>
-      <c r="MK2" s="14"/>
-      <c r="ML2" s="14"/>
-      <c r="MM2" s="14"/>
-      <c r="MN2" s="14"/>
-      <c r="MO2" s="14"/>
-      <c r="MP2" s="14"/>
-      <c r="MQ2" s="14"/>
-      <c r="MR2" s="14"/>
-      <c r="MS2" s="14"/>
-      <c r="MT2" s="14"/>
-      <c r="MU2" s="14"/>
-      <c r="MV2" s="14"/>
-      <c r="MW2" s="14"/>
-      <c r="MX2" s="14"/>
-      <c r="MY2" s="14"/>
-      <c r="MZ2" s="14"/>
-      <c r="NA2" s="14"/>
-      <c r="NB2" s="14"/>
-      <c r="NC2" s="14"/>
-      <c r="ND2" s="14"/>
-      <c r="NE2" s="14"/>
-      <c r="NF2" s="14"/>
-      <c r="NG2" s="14"/>
-      <c r="NH2" s="14"/>
-      <c r="NI2" s="14"/>
-      <c r="NJ2" s="14"/>
-      <c r="NK2" s="14"/>
-      <c r="NL2" s="14"/>
-      <c r="NM2" s="14"/>
-      <c r="NN2" s="14"/>
-      <c r="NO2" s="14"/>
-      <c r="NP2" s="14"/>
-      <c r="NQ2" s="14"/>
-      <c r="NR2" s="14"/>
-      <c r="NS2" s="14"/>
-      <c r="NT2" s="14"/>
-      <c r="NU2" s="14"/>
-      <c r="NV2" s="14"/>
-      <c r="NW2" s="14"/>
-      <c r="NX2" s="14"/>
-      <c r="NY2" s="14"/>
-      <c r="NZ2" s="14"/>
-      <c r="OA2" s="14"/>
-      <c r="OB2" s="14"/>
-      <c r="OC2" s="14"/>
-      <c r="OD2" s="14"/>
-      <c r="OE2" s="14"/>
-      <c r="OF2" s="14"/>
-      <c r="OG2" s="14"/>
-      <c r="OH2" s="14"/>
-      <c r="OI2" s="14"/>
-      <c r="OJ2" s="14"/>
-      <c r="OK2" s="14"/>
-      <c r="OL2" s="14"/>
-      <c r="OM2" s="14"/>
-      <c r="ON2" s="14"/>
-      <c r="OO2" s="14"/>
-      <c r="OP2" s="14"/>
-      <c r="OQ2" s="14"/>
-      <c r="OR2" s="14"/>
-      <c r="OS2" s="14"/>
-      <c r="OT2" s="14"/>
-      <c r="OU2" s="14"/>
-      <c r="OV2" s="14"/>
-      <c r="OW2" s="14"/>
-      <c r="OX2" s="14"/>
-      <c r="OY2" s="14"/>
-      <c r="OZ2" s="14"/>
-      <c r="PA2" s="14"/>
-      <c r="PB2" s="14"/>
-      <c r="PC2" s="14"/>
-      <c r="PD2" s="14"/>
-      <c r="PE2" s="14"/>
-      <c r="PF2" s="14"/>
-      <c r="PG2" s="14"/>
-      <c r="PH2" s="14"/>
-      <c r="PI2" s="14"/>
-      <c r="PJ2" s="14"/>
-      <c r="PK2" s="14"/>
-      <c r="PL2" s="14"/>
-      <c r="PM2" s="14"/>
-      <c r="PN2" s="14"/>
-      <c r="PO2" s="14"/>
-      <c r="PP2" s="14"/>
-      <c r="PQ2" s="14"/>
-      <c r="PR2" s="14"/>
-      <c r="PS2" s="14"/>
-      <c r="PT2" s="14"/>
-      <c r="PU2" s="14"/>
-      <c r="PV2" s="14"/>
-      <c r="PW2" s="14"/>
-      <c r="PX2" s="14"/>
-      <c r="PY2" s="14"/>
-      <c r="PZ2" s="14"/>
-      <c r="QA2" s="14"/>
-      <c r="QB2" s="14"/>
-      <c r="QC2" s="14"/>
-      <c r="QD2" s="14"/>
-      <c r="QE2" s="14"/>
-      <c r="QF2" s="14"/>
-      <c r="QG2" s="14"/>
-      <c r="QH2" s="14"/>
-      <c r="QI2" s="14"/>
-      <c r="QJ2" s="14"/>
-      <c r="QK2" s="14"/>
-      <c r="QL2" s="14"/>
-      <c r="QM2" s="14"/>
-      <c r="QN2" s="14"/>
-      <c r="QO2" s="14"/>
-      <c r="QP2" s="14"/>
-      <c r="QQ2" s="14"/>
-      <c r="QR2" s="14"/>
-      <c r="QS2" s="14"/>
-      <c r="QT2" s="14"/>
-      <c r="QU2" s="14"/>
-      <c r="QV2" s="14"/>
-      <c r="QW2" s="14"/>
-      <c r="QX2" s="14"/>
-      <c r="QY2" s="14"/>
-      <c r="QZ2" s="14"/>
-      <c r="RA2" s="14"/>
-      <c r="RB2" s="14"/>
-      <c r="RC2" s="14"/>
-      <c r="RD2" s="14"/>
-      <c r="RE2" s="14"/>
-      <c r="RF2" s="14"/>
-      <c r="RG2" s="14"/>
-      <c r="RH2" s="14"/>
-      <c r="RI2" s="14"/>
-      <c r="RJ2" s="14"/>
-      <c r="RK2" s="14"/>
-      <c r="RL2" s="14"/>
-      <c r="RM2" s="14"/>
-      <c r="RN2" s="14"/>
-      <c r="RO2" s="14"/>
-      <c r="RP2" s="14"/>
-      <c r="RQ2" s="14"/>
-      <c r="RR2" s="14"/>
-      <c r="RS2" s="14"/>
-      <c r="RT2" s="14"/>
-      <c r="RU2" s="14"/>
-      <c r="RV2" s="14"/>
-      <c r="RW2" s="14"/>
-      <c r="RX2" s="14"/>
-      <c r="RY2" s="14"/>
-      <c r="RZ2" s="14"/>
-      <c r="SA2" s="14"/>
-      <c r="SB2" s="14"/>
-      <c r="SC2" s="14"/>
-      <c r="SD2" s="14"/>
-      <c r="SE2" s="14"/>
-      <c r="SF2" s="14"/>
-      <c r="SG2" s="14"/>
-      <c r="SH2" s="14"/>
-      <c r="SI2" s="14"/>
-      <c r="SJ2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="17"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="17"/>
+      <c r="BV2" s="17"/>
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="17"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="17"/>
+      <c r="CD2" s="17"/>
+      <c r="CE2" s="17"/>
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="17"/>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="17"/>
+      <c r="CK2" s="17"/>
+      <c r="CL2" s="17"/>
+      <c r="CM2" s="17"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="17"/>
+      <c r="CT2" s="17"/>
+      <c r="CU2" s="17"/>
+      <c r="CV2" s="17"/>
+      <c r="CW2" s="17"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="17"/>
+      <c r="DB2" s="17"/>
+      <c r="DC2" s="17"/>
+      <c r="DD2" s="17"/>
+      <c r="DE2" s="17"/>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="17"/>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="17"/>
+      <c r="DJ2" s="17"/>
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="17"/>
+      <c r="DR2" s="17"/>
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="17"/>
+      <c r="DW2" s="17"/>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="17"/>
+      <c r="DZ2" s="17"/>
+      <c r="EA2" s="17"/>
+      <c r="EB2" s="17"/>
+      <c r="EC2" s="17"/>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="17"/>
+      <c r="EF2" s="17"/>
+      <c r="EG2" s="17"/>
+      <c r="EH2" s="17"/>
+      <c r="EI2" s="17"/>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="17"/>
+      <c r="EL2" s="17"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="17"/>
+      <c r="EO2" s="17"/>
+      <c r="EP2" s="17"/>
+      <c r="EQ2" s="17"/>
+      <c r="ER2" s="17"/>
+      <c r="ES2" s="17"/>
+      <c r="ET2" s="17"/>
+      <c r="EU2" s="17"/>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="17"/>
+      <c r="EX2" s="17"/>
+      <c r="EY2" s="17"/>
+      <c r="EZ2" s="17"/>
+      <c r="FA2" s="17"/>
+      <c r="FB2" s="17"/>
+      <c r="FC2" s="17"/>
+      <c r="FD2" s="17"/>
+      <c r="FE2" s="17"/>
+      <c r="FF2" s="17"/>
+      <c r="FG2" s="17"/>
+      <c r="FH2" s="17"/>
+      <c r="FI2" s="17"/>
+      <c r="FJ2" s="17"/>
+      <c r="FK2" s="17"/>
+      <c r="FL2" s="17"/>
+      <c r="FM2" s="17"/>
+      <c r="FN2" s="17"/>
+      <c r="FO2" s="17"/>
+      <c r="FP2" s="17"/>
+      <c r="FQ2" s="17"/>
+      <c r="FR2" s="17"/>
+      <c r="FS2" s="17"/>
+      <c r="FT2" s="17"/>
+      <c r="FU2" s="17"/>
+      <c r="FV2" s="17"/>
+      <c r="FW2" s="17"/>
+      <c r="FX2" s="17"/>
+      <c r="FY2" s="17"/>
+      <c r="FZ2" s="17"/>
+      <c r="GA2" s="17"/>
+      <c r="GB2" s="17"/>
+      <c r="GC2" s="17"/>
+      <c r="GD2" s="17"/>
+      <c r="GE2" s="17"/>
+      <c r="GF2" s="17"/>
+      <c r="GG2" s="17"/>
+      <c r="GH2" s="17"/>
+      <c r="GI2" s="17"/>
+      <c r="GJ2" s="17"/>
+      <c r="GK2" s="17"/>
+      <c r="GL2" s="17"/>
+      <c r="GM2" s="17"/>
+      <c r="GN2" s="17"/>
+      <c r="GO2" s="17"/>
+      <c r="GP2" s="17"/>
+      <c r="GQ2" s="17"/>
+      <c r="GR2" s="17"/>
+      <c r="GS2" s="17"/>
+      <c r="GT2" s="17"/>
+      <c r="GU2" s="17"/>
+      <c r="GV2" s="17"/>
+      <c r="GW2" s="17"/>
+      <c r="GX2" s="17"/>
+      <c r="GY2" s="17"/>
+      <c r="GZ2" s="17"/>
+      <c r="HA2" s="17"/>
+      <c r="HB2" s="17"/>
+      <c r="HC2" s="17"/>
+      <c r="HD2" s="17"/>
+      <c r="HE2" s="17"/>
+      <c r="HF2" s="17"/>
+      <c r="HG2" s="17"/>
+      <c r="HH2" s="17"/>
+      <c r="HI2" s="17"/>
+      <c r="HJ2" s="17"/>
+      <c r="HK2" s="17"/>
+      <c r="HL2" s="17"/>
+      <c r="HM2" s="17"/>
+      <c r="HN2" s="17"/>
+      <c r="HO2" s="17"/>
+      <c r="HP2" s="17"/>
+      <c r="HQ2" s="17"/>
+      <c r="HR2" s="17"/>
+      <c r="HS2" s="17"/>
+      <c r="HT2" s="17"/>
+      <c r="HU2" s="17"/>
+      <c r="HV2" s="17"/>
+      <c r="HW2" s="17"/>
+      <c r="HX2" s="17"/>
+      <c r="HY2" s="17"/>
+      <c r="HZ2" s="17"/>
+      <c r="IA2" s="17"/>
+      <c r="IB2" s="17"/>
+      <c r="IC2" s="17"/>
+      <c r="ID2" s="17"/>
+      <c r="IE2" s="17"/>
+      <c r="IF2" s="17"/>
+      <c r="IG2" s="17"/>
+      <c r="IH2" s="17"/>
+      <c r="II2" s="17"/>
+      <c r="IJ2" s="17"/>
+      <c r="IK2" s="17"/>
+      <c r="IL2" s="17"/>
+      <c r="IM2" s="17"/>
+      <c r="IN2" s="17"/>
+      <c r="IO2" s="17"/>
+      <c r="IP2" s="17"/>
+      <c r="IQ2" s="17"/>
+      <c r="IR2" s="17"/>
+      <c r="IS2" s="17"/>
+      <c r="IT2" s="17"/>
+      <c r="IU2" s="17"/>
+      <c r="IV2" s="17"/>
+      <c r="IW2" s="17"/>
+      <c r="IX2" s="17"/>
+      <c r="IY2" s="17"/>
+      <c r="IZ2" s="17"/>
+      <c r="JA2" s="17"/>
+      <c r="JB2" s="17"/>
+      <c r="JC2" s="17"/>
+      <c r="JD2" s="17"/>
+      <c r="JE2" s="17"/>
+      <c r="JF2" s="17"/>
+      <c r="JG2" s="17"/>
+      <c r="JH2" s="17"/>
+      <c r="JI2" s="17"/>
+      <c r="JJ2" s="17"/>
+      <c r="JK2" s="17"/>
+      <c r="JL2" s="17"/>
+      <c r="JM2" s="17"/>
+      <c r="JN2" s="17"/>
+      <c r="JO2" s="17"/>
+      <c r="JP2" s="17"/>
+      <c r="JQ2" s="17"/>
+      <c r="JR2" s="17"/>
+      <c r="JS2" s="17"/>
+      <c r="JT2" s="17"/>
+      <c r="JU2" s="17"/>
+      <c r="JV2" s="17"/>
+      <c r="JW2" s="17"/>
+      <c r="JX2" s="17"/>
+      <c r="JY2" s="17"/>
+      <c r="JZ2" s="17"/>
+      <c r="KA2" s="17"/>
+      <c r="KB2" s="17"/>
+      <c r="KC2" s="17"/>
+      <c r="KD2" s="17"/>
+      <c r="KE2" s="17"/>
+      <c r="KF2" s="17"/>
+      <c r="KG2" s="17"/>
+      <c r="KH2" s="17"/>
+      <c r="KI2" s="17"/>
+      <c r="KJ2" s="17"/>
+      <c r="KK2" s="17"/>
+      <c r="KL2" s="17"/>
+      <c r="KM2" s="17"/>
+      <c r="KN2" s="17"/>
+      <c r="KO2" s="17"/>
+      <c r="KP2" s="17"/>
+      <c r="KQ2" s="17"/>
+      <c r="KR2" s="17"/>
+      <c r="KS2" s="17"/>
+      <c r="KT2" s="17"/>
+      <c r="KU2" s="17"/>
+      <c r="KV2" s="17"/>
+      <c r="KW2" s="17"/>
+      <c r="KX2" s="17"/>
+      <c r="KY2" s="17"/>
+      <c r="KZ2" s="17"/>
+      <c r="LA2" s="17"/>
+      <c r="LB2" s="17"/>
+      <c r="LC2" s="17"/>
+      <c r="LD2" s="17"/>
+      <c r="LE2" s="17"/>
+      <c r="LF2" s="17"/>
+      <c r="LG2" s="17"/>
+      <c r="LH2" s="17"/>
+      <c r="LI2" s="17"/>
+      <c r="LJ2" s="17"/>
+      <c r="LK2" s="17"/>
+      <c r="LL2" s="17"/>
+      <c r="LM2" s="17"/>
+      <c r="LN2" s="17"/>
+      <c r="LO2" s="17"/>
+      <c r="LP2" s="17"/>
+      <c r="LQ2" s="17"/>
+      <c r="LR2" s="17"/>
+      <c r="LS2" s="17"/>
+      <c r="LT2" s="17"/>
+      <c r="LU2" s="17"/>
+      <c r="LV2" s="17"/>
+      <c r="LW2" s="17"/>
+      <c r="LX2" s="17"/>
+      <c r="LY2" s="17"/>
+      <c r="LZ2" s="17"/>
+      <c r="MA2" s="17"/>
+      <c r="MB2" s="17"/>
+      <c r="MC2" s="17"/>
+      <c r="MD2" s="17"/>
+      <c r="ME2" s="17"/>
+      <c r="MF2" s="17"/>
+      <c r="MG2" s="17"/>
+      <c r="MH2" s="17"/>
+      <c r="MI2" s="17"/>
+      <c r="MJ2" s="17"/>
+      <c r="MK2" s="17"/>
+      <c r="ML2" s="17"/>
+      <c r="MM2" s="17"/>
+      <c r="MN2" s="17"/>
+      <c r="MO2" s="17"/>
+      <c r="MP2" s="17"/>
+      <c r="MQ2" s="17"/>
+      <c r="MR2" s="17"/>
+      <c r="MS2" s="17"/>
+      <c r="MT2" s="17"/>
+      <c r="MU2" s="17"/>
+      <c r="MV2" s="17"/>
+      <c r="MW2" s="17"/>
+      <c r="MX2" s="17"/>
+      <c r="MY2" s="17"/>
+      <c r="MZ2" s="17"/>
+      <c r="NA2" s="17"/>
+      <c r="NB2" s="17"/>
+      <c r="NC2" s="17"/>
+      <c r="ND2" s="17"/>
+      <c r="NE2" s="17"/>
+      <c r="NF2" s="17"/>
+      <c r="NG2" s="17"/>
+      <c r="NH2" s="17"/>
+      <c r="NI2" s="17"/>
+      <c r="NJ2" s="17"/>
+      <c r="NK2" s="17"/>
+      <c r="NL2" s="17"/>
+      <c r="NM2" s="17"/>
+      <c r="NN2" s="17"/>
+      <c r="NO2" s="17"/>
+      <c r="NP2" s="17"/>
+      <c r="NQ2" s="17"/>
+      <c r="NR2" s="17"/>
+      <c r="NS2" s="17"/>
+      <c r="NT2" s="17"/>
+      <c r="NU2" s="17"/>
+      <c r="NV2" s="17"/>
+      <c r="NW2" s="17"/>
+      <c r="NX2" s="17"/>
+      <c r="NY2" s="17"/>
+      <c r="NZ2" s="17"/>
+      <c r="OA2" s="17"/>
+      <c r="OB2" s="17"/>
+      <c r="OC2" s="17"/>
+      <c r="OD2" s="17"/>
+      <c r="OE2" s="17"/>
+      <c r="OF2" s="17"/>
+      <c r="OG2" s="17"/>
+      <c r="OH2" s="17"/>
+      <c r="OI2" s="17"/>
+      <c r="OJ2" s="17"/>
+      <c r="OK2" s="17"/>
+      <c r="OL2" s="17"/>
+      <c r="OM2" s="17"/>
+      <c r="ON2" s="17"/>
+      <c r="OO2" s="17"/>
+      <c r="OP2" s="17"/>
+      <c r="OQ2" s="17"/>
+      <c r="OR2" s="17"/>
+      <c r="OS2" s="17"/>
+      <c r="OT2" s="17"/>
+      <c r="OU2" s="17"/>
+      <c r="OV2" s="17"/>
+      <c r="OW2" s="17"/>
+      <c r="OX2" s="17"/>
+      <c r="OY2" s="17"/>
+      <c r="OZ2" s="17"/>
+      <c r="PA2" s="17"/>
+      <c r="PB2" s="17"/>
+      <c r="PC2" s="17"/>
+      <c r="PD2" s="17"/>
+      <c r="PE2" s="17"/>
+      <c r="PF2" s="17"/>
+      <c r="PG2" s="17"/>
+      <c r="PH2" s="17"/>
+      <c r="PI2" s="17"/>
+      <c r="PJ2" s="17"/>
+      <c r="PK2" s="17"/>
+      <c r="PL2" s="17"/>
+      <c r="PM2" s="17"/>
+      <c r="PN2" s="17"/>
+      <c r="PO2" s="17"/>
+      <c r="PP2" s="17"/>
+      <c r="PQ2" s="17"/>
+      <c r="PR2" s="17"/>
+      <c r="PS2" s="17"/>
+      <c r="PT2" s="17"/>
+      <c r="PU2" s="17"/>
+      <c r="PV2" s="17"/>
+      <c r="PW2" s="17"/>
+      <c r="PX2" s="17"/>
+      <c r="PY2" s="17"/>
+      <c r="PZ2" s="17"/>
+      <c r="QA2" s="17"/>
+      <c r="QB2" s="17"/>
+      <c r="QC2" s="17"/>
+      <c r="QD2" s="17"/>
+      <c r="QE2" s="17"/>
+      <c r="QF2" s="17"/>
+      <c r="QG2" s="17"/>
+      <c r="QH2" s="17"/>
+      <c r="QI2" s="17"/>
+      <c r="QJ2" s="17"/>
+      <c r="QK2" s="17"/>
+      <c r="QL2" s="17"/>
+      <c r="QM2" s="17"/>
+      <c r="QN2" s="17"/>
+      <c r="QO2" s="17"/>
+      <c r="QP2" s="17"/>
+      <c r="QQ2" s="17"/>
+      <c r="QR2" s="17"/>
+      <c r="QS2" s="17"/>
+      <c r="QT2" s="17"/>
+      <c r="QU2" s="17"/>
+      <c r="QV2" s="17"/>
+      <c r="QW2" s="17"/>
+      <c r="QX2" s="17"/>
+      <c r="QY2" s="17"/>
+      <c r="QZ2" s="17"/>
+      <c r="RA2" s="17"/>
+      <c r="RB2" s="17"/>
+      <c r="RC2" s="17"/>
+      <c r="RD2" s="17"/>
+      <c r="RE2" s="17"/>
+      <c r="RF2" s="17"/>
+      <c r="RG2" s="17"/>
+      <c r="RH2" s="17"/>
+      <c r="RI2" s="17"/>
+      <c r="RJ2" s="17"/>
+      <c r="RK2" s="17"/>
+      <c r="RL2" s="17"/>
+      <c r="RM2" s="17"/>
+      <c r="RN2" s="17"/>
+      <c r="RO2" s="17"/>
+      <c r="RP2" s="17"/>
+      <c r="RQ2" s="17"/>
+      <c r="RR2" s="17"/>
+      <c r="RS2" s="17"/>
+      <c r="RT2" s="17"/>
+      <c r="RU2" s="17"/>
+      <c r="RV2" s="17"/>
+      <c r="RW2" s="17"/>
+      <c r="RX2" s="17"/>
+      <c r="RY2" s="17"/>
+      <c r="RZ2" s="17"/>
+      <c r="SA2" s="17"/>
+      <c r="SB2" s="17"/>
+      <c r="SC2" s="17"/>
+      <c r="SD2" s="17"/>
+      <c r="SE2" s="17"/>
+      <c r="SF2" s="17"/>
+      <c r="SG2" s="17"/>
+      <c r="SH2" s="17"/>
+      <c r="SI2" s="17"/>
+      <c r="SJ2" s="18"/>
     </row>
     <row r="3" spans="3:504" ht="19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -2118,7 +2177,9 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2619,7 +2680,7 @@
       <c r="SJ3" s="3"/>
     </row>
     <row r="4" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2628,7 +2689,9 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3129,7 +3192,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3635,7 +3698,7 @@
       <c r="SJ5" s="5"/>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -5141,14 +5204,16 @@
       </c>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -5649,14 +5714,16 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -6157,14 +6224,16 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -6665,7 +6734,7 @@
       <c r="SJ9" s="5"/>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -8171,14 +8240,16 @@
       </c>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5">
+        <v>4199</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -8679,7 +8750,7 @@
       <c r="SJ11" s="5"/>
     </row>
     <row r="12" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C12" s="18"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
@@ -10185,7 +10256,7 @@
       </c>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -10194,7 +10265,9 @@
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -10695,7 +10768,7 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
@@ -11201,7 +11274,7 @@
       <c r="SJ14" s="5"/>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
@@ -12707,7 +12780,7 @@
       </c>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C16" s="17"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
@@ -13213,7 +13286,7 @@
       <c r="SJ16" s="5"/>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="18"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
@@ -13719,7 +13792,7 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -13728,7 +13801,9 @@
       <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -14229,7 +14304,7 @@
       <c r="SJ18" s="5"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
@@ -14735,7 +14810,7 @@
       <c r="SJ19" s="5"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -14743,7 +14818,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>11</v>
@@ -16241,7 +16316,7 @@
       </c>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>36</v>
       </c>
@@ -16747,14 +16822,16 @@
       <c r="SJ21" s="7"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C22" s="17"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -17255,7 +17332,7 @@
       <c r="SJ22" s="5"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="6" t="s">
         <v>39</v>
       </c>
@@ -17761,7 +17838,7 @@
       <c r="SJ23" s="7"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="17"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
         <v>40</v>
       </c>
@@ -18267,7 +18344,7 @@
       <c r="SJ24" s="5"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="6" t="s">
         <v>41</v>
       </c>
@@ -18773,7 +18850,7 @@
       <c r="SJ25" s="7"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
         <v>42</v>
       </c>
@@ -19279,7 +19356,7 @@
       <c r="SJ26" s="5"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="6" t="s">
         <v>43</v>
       </c>
@@ -19785,14 +19862,16 @@
       <c r="SJ27" s="7"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="17"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -20293,7 +20372,7 @@
       <c r="SJ28" s="5"/>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="6" t="s">
         <v>45</v>
       </c>
@@ -20799,7 +20878,7 @@
       <c r="SJ29" s="7"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="17"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="4" t="s">
         <v>46</v>
       </c>
@@ -21305,7 +21384,7 @@
       <c r="SJ30" s="5"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="17"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="6" t="s">
         <v>47</v>
       </c>
@@ -21811,7 +21890,7 @@
       <c r="SJ31" s="7"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="17"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>48</v>
       </c>
@@ -22317,7 +22396,7 @@
       <c r="SJ32" s="5"/>
     </row>
     <row r="33" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C33" s="17"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="6" t="s">
         <v>49</v>
       </c>
@@ -22823,7 +22902,7 @@
       <c r="SJ33" s="7"/>
     </row>
     <row r="34" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C34" s="17"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="4" t="s">
         <v>50</v>
       </c>
@@ -23329,7 +23408,7 @@
       <c r="SJ34" s="5"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="6" t="s">
         <v>51</v>
       </c>
@@ -23835,7 +23914,7 @@
       <c r="SJ35" s="7"/>
     </row>
     <row r="36" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="4" t="s">
         <v>52</v>
       </c>
@@ -24341,7 +24420,7 @@
       <c r="SJ36" s="5"/>
     </row>
     <row r="37" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C37" s="17"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="6" t="s">
         <v>53</v>
       </c>
@@ -24847,7 +24926,7 @@
       <c r="SJ37" s="7"/>
     </row>
     <row r="38" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C38" s="17"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
         <v>43</v>
       </c>
@@ -25353,7 +25432,7 @@
       <c r="SJ38" s="5"/>
     </row>
     <row r="39" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="6" t="s">
         <v>54</v>
       </c>
@@ -25859,7 +25938,7 @@
       <c r="SJ39" s="7"/>
     </row>
     <row r="40" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="4" t="s">
         <v>55</v>
       </c>
@@ -26365,7 +26444,7 @@
       <c r="SJ40" s="5"/>
     </row>
     <row r="41" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="6" t="s">
         <v>56</v>
       </c>
@@ -26871,7 +26950,7 @@
       <c r="SJ41" s="7"/>
     </row>
     <row r="42" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4" t="s">
         <v>57</v>
       </c>
@@ -27377,14 +27456,16 @@
       <c r="SJ42" s="5"/>
     </row>
     <row r="43" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -27885,7 +27966,7 @@
       <c r="SJ43" s="5"/>
     </row>
     <row r="44" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="6" t="s">
         <v>59</v>
       </c>
@@ -28391,7 +28472,7 @@
       <c r="SJ44" s="7"/>
     </row>
     <row r="45" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C45" s="17"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4" t="s">
         <v>60</v>
       </c>
@@ -28897,7 +28978,7 @@
       <c r="SJ45" s="5"/>
     </row>
     <row r="46" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="6" t="s">
         <v>61</v>
       </c>
@@ -29403,7 +29484,7 @@
       <c r="SJ46" s="7"/>
     </row>
     <row r="47" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C47" s="17"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4" t="s">
         <v>62</v>
       </c>
@@ -29909,7 +29990,7 @@
       <c r="SJ47" s="5"/>
     </row>
     <row r="48" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="6" t="s">
         <v>63</v>
       </c>
@@ -30415,7 +30496,7 @@
       <c r="SJ48" s="7"/>
     </row>
     <row r="49" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="4" t="s">
         <v>64</v>
       </c>
@@ -30921,7 +31002,7 @@
       <c r="SJ49" s="5"/>
     </row>
     <row r="50" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C50" s="17"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="6" t="s">
         <v>65</v>
       </c>
@@ -31427,7 +31508,7 @@
       <c r="SJ50" s="7"/>
     </row>
     <row r="51" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C51" s="17"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4" t="s">
         <v>66</v>
       </c>
@@ -31933,7 +32014,7 @@
       <c r="SJ51" s="5"/>
     </row>
     <row r="52" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C52" s="17"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="6" t="s">
         <v>67</v>
       </c>
@@ -32439,7 +32520,7 @@
       <c r="SJ52" s="7"/>
     </row>
     <row r="53" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C53" s="17"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4" t="s">
         <v>68</v>
       </c>
@@ -32945,7 +33026,7 @@
       <c r="SJ53" s="5"/>
     </row>
     <row r="54" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C54" s="17"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="6" t="s">
         <v>43</v>
       </c>
@@ -33451,14 +33532,16 @@
       <c r="SJ54" s="7"/>
     </row>
     <row r="55" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C55" s="17"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -33959,7 +34042,7 @@
       <c r="SJ55" s="5"/>
     </row>
     <row r="56" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C56" s="17"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>71</v>
       </c>
@@ -33967,7 +34050,7 @@
         <v>72</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>73</v>
@@ -35465,7 +35548,7 @@
       </c>
     </row>
     <row r="57" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C57" s="17"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
         <v>74</v>
       </c>
@@ -35473,7 +35556,7 @@
         <v>75</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>76</v>
@@ -36971,7 +37054,7 @@
       </c>
     </row>
     <row r="58" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C58" s="17"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4" t="s">
         <v>77</v>
       </c>
@@ -36979,7 +37062,7 @@
         <v>78</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>79</v>
@@ -38477,14 +38560,16 @@
       </c>
     </row>
     <row r="59" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C59" s="17"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -38985,7 +39070,7 @@
       <c r="SJ59" s="5"/>
     </row>
     <row r="60" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C60" s="17"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="4" t="s">
         <v>82</v>
       </c>
@@ -40491,14 +40576,12 @@
       </c>
     </row>
     <row r="61" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C61" s="17"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
         <v>85</v>
       </c>
@@ -41995,7 +42078,7 @@
       </c>
     </row>
     <row r="62" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C62" s="17"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="4" t="s">
         <v>86</v>
       </c>
@@ -42003,7 +42086,7 @@
         <v>87</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>88</v>
@@ -43501,7 +43584,7 @@
       </c>
     </row>
     <row r="63" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C63" s="17"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="4" t="s">
         <v>89</v>
       </c>
@@ -45007,7 +45090,7 @@
       </c>
     </row>
     <row r="64" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C64" s="17"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="4" t="s">
         <v>90</v>
       </c>
@@ -45015,7 +45098,7 @@
         <v>35</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>88</v>
@@ -46513,14 +46596,16 @@
       </c>
     </row>
     <row r="65" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C65" s="17"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -47021,7 +47106,7 @@
       <c r="SJ65" s="7"/>
     </row>
     <row r="66" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C66" s="17"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="4" t="s">
         <v>92</v>
       </c>
@@ -47527,7 +47612,7 @@
       <c r="SJ66" s="5"/>
     </row>
     <row r="67" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C67" s="17"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="6" t="s">
         <v>93</v>
       </c>
@@ -48033,7 +48118,7 @@
       <c r="SJ67" s="7"/>
     </row>
     <row r="68" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C68" s="17"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="4" t="s">
         <v>94</v>
       </c>
@@ -48539,7 +48624,7 @@
       <c r="SJ68" s="5"/>
     </row>
     <row r="69" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C69" s="17"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="6" t="s">
         <v>95</v>
       </c>
@@ -49045,7 +49130,7 @@
       <c r="SJ69" s="7"/>
     </row>
     <row r="70" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C70" s="17"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="4" t="s">
         <v>96</v>
       </c>
@@ -49551,7 +49636,7 @@
       <c r="SJ70" s="5"/>
     </row>
     <row r="71" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C71" s="17"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="6" t="s">
         <v>43</v>
       </c>
@@ -50057,7 +50142,7 @@
       <c r="SJ71" s="7"/>
     </row>
     <row r="72" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C72" s="17"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4" t="s">
         <v>97</v>
       </c>
@@ -50563,14 +50648,16 @@
       <c r="SJ72" s="5"/>
     </row>
     <row r="73" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C73" s="17"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -51071,7 +51158,7 @@
       <c r="SJ73" s="5"/>
     </row>
     <row r="74" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C74" s="17"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="6" t="s">
         <v>99</v>
       </c>
@@ -51577,7 +51664,7 @@
       <c r="SJ74" s="7"/>
     </row>
     <row r="75" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C75" s="17"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="4" t="s">
         <v>100</v>
       </c>
@@ -52083,7 +52170,7 @@
       <c r="SJ75" s="5"/>
     </row>
     <row r="76" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C76" s="17"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="6" t="s">
         <v>101</v>
       </c>
@@ -52589,7 +52676,7 @@
       <c r="SJ76" s="7"/>
     </row>
     <row r="77" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C77" s="17"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="4" t="s">
         <v>102</v>
       </c>
@@ -53095,7 +53182,7 @@
       <c r="SJ77" s="5"/>
     </row>
     <row r="78" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C78" s="17"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="6" t="s">
         <v>103</v>
       </c>
@@ -53601,7 +53688,7 @@
       <c r="SJ78" s="7"/>
     </row>
     <row r="79" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C79" s="17"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="4" t="s">
         <v>104</v>
       </c>
@@ -54107,7 +54194,7 @@
       <c r="SJ79" s="5"/>
     </row>
     <row r="80" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C80" s="17"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="6" t="s">
         <v>105</v>
       </c>
@@ -54613,7 +54700,7 @@
       <c r="SJ80" s="7"/>
     </row>
     <row r="81" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C81" s="17"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="4" t="s">
         <v>43</v>
       </c>
@@ -55119,14 +55206,16 @@
       <c r="SJ81" s="5"/>
     </row>
     <row r="82" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C82" s="17"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="5"/>
+      <c r="F82" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -55627,14 +55716,16 @@
       <c r="SJ82" s="5"/>
     </row>
     <row r="83" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C83" s="17"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -56135,7 +56226,7 @@
       <c r="SJ83" s="5"/>
     </row>
     <row r="84" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C84" s="17"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="6" t="s">
         <v>109</v>
       </c>
@@ -56641,7 +56732,7 @@
       <c r="SJ84" s="7"/>
     </row>
     <row r="85" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C85" s="17"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="4" t="s">
         <v>110</v>
       </c>
@@ -57147,7 +57238,7 @@
       <c r="SJ85" s="5"/>
     </row>
     <row r="86" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C86" s="17"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="6" t="s">
         <v>111</v>
       </c>
@@ -57653,7 +57744,7 @@
       <c r="SJ86" s="7"/>
     </row>
     <row r="87" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C87" s="17"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="4" t="s">
         <v>112</v>
       </c>
@@ -58159,7 +58250,7 @@
       <c r="SJ87" s="5"/>
     </row>
     <row r="88" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C88" s="17"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="6" t="s">
         <v>113</v>
       </c>
@@ -58665,7 +58756,7 @@
       <c r="SJ88" s="7"/>
     </row>
     <row r="89" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C89" s="17"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="4" t="s">
         <v>43</v>
       </c>
@@ -59171,7 +59262,7 @@
       <c r="SJ89" s="5"/>
     </row>
     <row r="90" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C90" s="17"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="4" t="s">
         <v>114</v>
       </c>
@@ -59677,14 +59768,16 @@
       <c r="SJ90" s="5"/>
     </row>
     <row r="91" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C91" s="18"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -60185,7 +60278,7 @@
       <c r="SJ91" s="5"/>
     </row>
     <row r="92" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -60693,7 +60786,7 @@
       <c r="SJ92" s="5"/>
     </row>
     <row r="93" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -60703,7 +60796,7 @@
         <v>121</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>122</v>
@@ -62201,7 +62294,7 @@
       </c>
     </row>
     <row r="94" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C94" s="17"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="4" t="s">
         <v>123</v>
       </c>
@@ -62209,7 +62302,7 @@
         <v>121</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>124</v>
@@ -63707,7 +63800,7 @@
       </c>
     </row>
     <row r="95" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C95" s="17"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="4" t="s">
         <v>125</v>
       </c>
@@ -64213,7 +64306,7 @@
       <c r="SJ95" s="5"/>
     </row>
     <row r="96" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C96" s="18"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="4" t="s">
         <v>126</v>
       </c>
@@ -64719,7 +64812,7 @@
       <c r="SJ96" s="5"/>
     </row>
     <row r="97" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -65227,14 +65320,16 @@
       <c r="SJ97" s="9"/>
     </row>
     <row r="98" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C98" s="16"/>
+      <c r="C98" s="13"/>
       <c r="D98" t="s">
         <v>128</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
@@ -65735,14 +65830,16 @@
       <c r="SJ98" s="10"/>
     </row>
     <row r="99" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C99" s="17"/>
+      <c r="C99" s="14"/>
       <c r="D99" t="s">
         <v>130</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F99" s="10"/>
+        <v>191</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
@@ -66243,14 +66340,16 @@
       <c r="SJ99" s="10"/>
     </row>
     <row r="100" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C100" s="17"/>
+      <c r="C100" s="14"/>
       <c r="D100" t="s">
         <v>132</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
@@ -66751,14 +66850,16 @@
       <c r="SJ100" s="10"/>
     </row>
     <row r="101" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C101" s="18"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F101" s="11"/>
+      <c r="F101" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -67259,7 +67360,7 @@
       <c r="SJ101" s="11"/>
     </row>
     <row r="102" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -67268,7 +67369,9 @@
       <c r="E102" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -67769,14 +67872,16 @@
       <c r="SJ102" s="10"/>
     </row>
     <row r="103" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C103" s="17"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
@@ -68277,14 +68382,16 @@
       <c r="SJ103" s="10"/>
     </row>
     <row r="104" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C104" s="17"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
@@ -68785,7 +68892,7 @@
       <c r="SJ104" s="10"/>
     </row>
     <row r="105" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C105" s="17"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="4" t="s">
         <v>141</v>
       </c>
@@ -69291,7 +69398,7 @@
       <c r="SJ105" s="10"/>
     </row>
     <row r="106" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C106" s="17"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="4" t="s">
         <v>142</v>
       </c>
@@ -69797,7 +69904,7 @@
       <c r="SJ106" s="10"/>
     </row>
     <row r="107" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C107" s="17"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="4" t="s">
         <v>143</v>
       </c>
@@ -70303,7 +70410,7 @@
       <c r="SJ107" s="10"/>
     </row>
     <row r="108" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C108" s="17"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="4" t="s">
         <v>144</v>
       </c>
@@ -70809,7 +70916,7 @@
       <c r="SJ108" s="10"/>
     </row>
     <row r="109" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C109" s="17"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="4" t="s">
         <v>145</v>
       </c>
@@ -71315,7 +71422,7 @@
       <c r="SJ109" s="10"/>
     </row>
     <row r="110" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C110" s="17"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="4" t="s">
         <v>146</v>
       </c>
@@ -71821,7 +71928,7 @@
       <c r="SJ110" s="10"/>
     </row>
     <row r="111" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C111" s="18"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="8" t="s">
         <v>147</v>
       </c>
@@ -72439,10 +72546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+      <selection activeCell="B10" sqref="B10:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -72635,7 +72742,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10">
+        <v>299</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11">
+        <v>749</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12">
+        <v>1349</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13">
+        <v>2699</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Element Profiles/PTZ Camera-Element_Profile.xlsx
+++ b/Element Profiles/PTZ Camera-Element_Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8476F-56A4-A74B-AD09-47D6DFBD0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97B7F2B-D54B-4346-AD13-4F4056436448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="760" windowWidth="34400" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,9 +524,6 @@
     <t>Accessory4</t>
   </si>
   <si>
-    <t>ACC-POE-60W</t>
-  </si>
-  <si>
     <t>Accessory5</t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>https://www.verkada.com/security-cameras/ptz/</t>
+  </si>
+  <si>
+    <t>ACC-POE-90W</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2690,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -6232,7 +6232,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -65835,10 +65835,10 @@
         <v>130</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -66348,7 +66348,7 @@
         <v>133</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -66858,7 +66858,7 @@
         <v>131</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -68390,7 +68390,7 @@
         <v>140</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
@@ -72549,7 +72549,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F13"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -72653,10 +72653,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="E5">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -72664,7 +72664,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>140</v>
@@ -72673,7 +72673,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6">
         <v>199</v>
@@ -72684,16 +72684,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
         <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>549</v>
@@ -72704,16 +72704,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <v>899</v>
@@ -72724,16 +72724,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9">
         <v>1799</v>
@@ -72744,16 +72744,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10">
         <v>299</v>
@@ -72764,16 +72764,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>749</v>
@@ -72784,16 +72784,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12">
         <v>1349</v>
@@ -72804,16 +72804,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>2699</v>

--- a/Element Profiles/PTZ Camera-Element_Profile.xlsx
+++ b/Element Profiles/PTZ Camera-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97B7F2B-D54B-4346-AD13-4F4056436448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B0826-D018-FB44-8F78-969D204FAA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="760" windowWidth="34400" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28340" yWindow="3980" windowWidth="34400" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7721" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7783" uniqueCount="198">
   <si>
     <t>Export date: Aug 14, 2023</t>
   </si>
@@ -610,6 +610,24 @@
   <si>
     <t>ACC-POE-90W</t>
   </si>
+  <si>
+    <t>CP53-E 4K IR Outdoor PTZ Camera</t>
+  </si>
+  <si>
+    <t>CP53-E</t>
+  </si>
+  <si>
+    <t>4K / UHD</t>
+  </si>
+  <si>
+    <t>H.265</t>
+  </si>
+  <si>
+    <t>CP53-E Product Page</t>
+  </si>
+  <si>
+    <t>https://www.verkada.com/security-cameras/ptz/cp53-e/</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ111"/>
   <sheetViews>
-    <sheetView topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2180,7 +2198,9 @@
       <c r="F3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2692,7 +2712,9 @@
       <c r="F4" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -5214,7 +5236,9 @@
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -5724,7 +5748,9 @@
       <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -6234,7 +6260,9 @@
       <c r="F9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -8250,7 +8278,9 @@
       <c r="F11" s="5">
         <v>4199</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>4699</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -10268,7 +10298,9 @@
       <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -13804,7 +13836,9 @@
       <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -14821,7 +14855,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>11</v>
@@ -16832,7 +16866,9 @@
       <c r="F22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -19872,7 +19908,9 @@
       <c r="F28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -22400,9 +22438,15 @@
       <c r="D33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -22906,9 +22950,15 @@
       <c r="D34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -23412,9 +23462,15 @@
       <c r="D35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -25942,9 +25998,15 @@
       <c r="D40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -26954,9 +27016,15 @@
       <c r="D42" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -27466,7 +27534,9 @@
       <c r="F43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -27970,9 +28040,15 @@
       <c r="D44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -28476,9 +28552,15 @@
       <c r="D45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -28982,9 +29064,15 @@
       <c r="D46" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -29488,9 +29576,15 @@
       <c r="D47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -29994,9 +30088,15 @@
       <c r="D48" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -30500,9 +30600,15 @@
       <c r="D49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -31006,9 +31112,15 @@
       <c r="D50" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -32018,9 +32130,15 @@
       <c r="D52" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -33542,7 +33660,9 @@
       <c r="F55" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -34053,7 +34173,7 @@
         <v>72</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>73</v>
@@ -35559,7 +35679,7 @@
         <v>75</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>76</v>
@@ -37065,7 +37185,7 @@
         <v>78</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>79</v>
@@ -38570,7 +38690,9 @@
       <c r="F59" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -40582,9 +40704,7 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
         <v>85</v>
       </c>
@@ -42089,7 +42209,7 @@
         <v>87</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>88</v>
@@ -45101,7 +45221,7 @@
         <v>35</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>88</v>
@@ -46606,7 +46726,9 @@
       <c r="F65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -50658,7 +50780,9 @@
       <c r="F73" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="5"/>
+      <c r="G73" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -55216,7 +55340,9 @@
       <c r="F82" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -55726,7 +55852,9 @@
       <c r="F83" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -59778,7 +59906,9 @@
       <c r="F91" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -60799,7 +60929,7 @@
         <v>121</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>122</v>
@@ -62305,7 +62435,7 @@
         <v>121</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>124</v>
@@ -65330,7 +65460,9 @@
       <c r="F98" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G98" s="10"/>
+      <c r="G98" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -65840,7 +65972,9 @@
       <c r="F99" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G99" s="10"/>
+      <c r="G99" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -66350,7 +66484,9 @@
       <c r="F100" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -66860,7 +66996,9 @@
       <c r="F101" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G101" s="11"/>
+      <c r="G101" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
@@ -67372,7 +67510,9 @@
       <c r="F102" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -67882,7 +68022,9 @@
       <c r="F103" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -68392,7 +68534,9 @@
       <c r="F104" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -72534,9 +72678,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Accessories!$B$2:$B$1048576</xm:f>
+            <xm:f>Accessories!$B$14:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 F102 F103 F104 F105 F106 F107 F108 F109 F110 F111 G102 G103 G104 G105 G106 G107 G108 G109 G110 G111 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 M102 M103 M104 M105 M106 M107 M108 M109 M110 M111 N102 N103 N104 N105 N106 N107 N108 N109 N110 N111 O102 O103 O104 O105 O106 O107 O108 O109 O110 O111 P102 P103 P104 P105 P106 P107 P108 P109 P110 P111 Q102 Q103 Q104 Q105 Q106 Q107 Q108 Q109 Q110 Q111 R102 R103 R104 R105 R106 R107 R108 R109 R110 R111 S102 S103 S104 S105 S106 S107 S108 S109 S110 S111 T102 T103 T104 T105 T106 T107 T108 T109 T110 T111 U102 U103 U104 U105 U106 U107 U108 U109 U110 U111 V102 V103 V104 V105 V106 V107 V108 V109 V110 V111 W102 W103 W104 W105 W106 W107 W108 W109 W110 W111 X102 X103 X104 X105 X106 X107 X108 X109 X110 X111 Y102 Y103 Y104 Y105 Y106 Y107 Y108 Y109 Y110 Y111 Z102 Z103 Z104 Z105 Z106 Z107 Z108 Z109 Z110 Z111 AA102 AA103 AA104 AA105 AA106 AA107 AA108 AA109 AA110 AA111 AB102 AB103 AB104 AB105 AB106 AB107 AB108 AB109 AB110 AB111 AC102 AC103 AC104 AC105 AC106 AC107 AC108 AC109 AC110 AC111 AD102 AD103 AD104 AD105 AD106 AD107 AD108 AD109 AD110 AD111 AE102 AE103 AE104 AE105 AE106 AE107 AE108 AE109 AE110 AE111 AF102 AF103 AF104 AF105 AF106 AF107 AF108 AF109 AF110 AF111 AG102 AG103 AG104 AG105 AG106 AG107 AG108 AG109 AG110 AG111 AH102 AH103 AH104 AH105 AH106 AH107 AH108 AH109 AH110 AH111 AI102 AI103 AI104 AI105 AI106 AI107 AI108 AI109 AI110 AI111 AJ102 AJ103 AJ104 AJ105 AJ106 AJ107 AJ108 AJ109 AJ110 AJ111 AK102 AK103 AK104 AK105 AK106 AK107 AK108 AK109 AK110 AK111 AL102 AL103 AL104 AL105 AL106 AL107 AL108 AL109 AL110 AL111 AM102 AM103 AM104 AM105 AM106 AM107 AM108 AM109 AM110 AM111 AN102 AN103 AN104 AN105 AN106 AN107 AN108 AN109 AN110 AN111 AO102 AO103 AO104 AO105 AO106 AO107 AO108 AO109 AO110 AO111 AP102 AP103 AP104 AP105 AP106 AP107 AP108 AP109 AP110 AP111 AQ102 AQ103 AQ104 AQ105 AQ106 AQ107 AQ108 AQ109 AQ110 AQ111 AR102 AR103 AR104 AR105 AR106 AR107 AR108 AR109 AR110 AR111 AS102 AS103 AS104 AS105 AS106 AS107 AS108 AS109 AS110 AS111 AT102 AT103 AT104 AT105 AT106 AT107 AT108 AT109 AT110 AT111 AU102 AU103 AU104 AU105 AU106 AU107 AU108 AU109 AU110 AU111 AV102 AV103 AV104 AV105 AV106 AV107 AV108 AV109 AV110 AV111 AW102 AW103 AW104 AW105 AW106 AW107 AW108 AW109 AW110 AW111 AX102 AX103 AX104 AX105 AX106 AX107 AX108 AX109 AX110 AX111 AY102 AY103 AY104 AY105 AY106 AY107 AY108 AY109 AY110 AY111 AZ102 AZ103 AZ104 AZ105 AZ106 AZ107 AZ108 AZ109 AZ110 AZ111 BA102 BA103 BA104 BA105 BA106 BA107 BA108 BA109 BA110 BA111 BB102 BB103 BB104 BB105 BB106 BB107 BB108 BB109 BB110 BB111 BC102 BC103 BC104 BC105 BC106 BC107 BC108 BC109 BC110 BC111 BD102 BD103 BD104 BD105 BD106 BD107 BD108 BD109 BD110 BD111 BE102 BE103 BE104 BE105 BE106 BE107 BE108 BE109 BE110 BE111 BF102 BF103 BF104 BF105 BF106 BF107 BF108 BF109 BF110 BF111 BG102 BG103 BG104 BG105 BG106 BG107 BG108 BG109 BG110 BG111 BH102 BH103 BH104 BH105 BH106 BH107 BH108 BH109 BH110 BH111 BI102 BI103 BI104 BI105 BI106 BI107 BI108 BI109 BI110 BI111 BJ102 BJ103 BJ104 BJ105 BJ106 BJ107 BJ108 BJ109 BJ110 BJ111 BK102 BK103 BK104 BK105 BK106 BK107 BK108 BK109 BK110 BK111 BL102 BL103 BL104 BL105 BL106 BL107 BL108 BL109 BL110 BL111 BM102 BM103 BM104 BM105 BM106 BM107 BM108 BM109 BM110 BM111 BN102 BN103 BN104 BN105 BN106 BN107 BN108 BN109 BN110 BN111 BO102 BO103 BO104 BO105 BO106 BO107 BO108 BO109 BO110 BO111 BP102 BP103 BP104 BP105 BP106 BP107 BP108 BP109 BP110 BP111 BQ102 BQ103 BQ104 BQ105 BQ106 BQ107 BQ108 BQ109 BQ110 BQ111 BR102 BR103 BR104 BR105 BR106 BR107 BR108 BR109 BR110 BR111 BS102 BS103 BS104 BS105 BS106 BS107 BS108 BS109 BS110 BS111 BT102 BT103 BT104 BT105 BT106 BT107 BT108 BT109 BT110 BT111 BU102 BU103 BU104 BU105 BU106 BU107 BU108 BU109 BU110 BU111 BV102 BV103 BV104 BV105 BV106 BV107 BV108 BV109 BV110 BV111 BW102 BW103 BW104 BW105 BW106 BW107 BW108 BW109 BW110 BW111 BX102 BX103 BX104 BX105 BX106 BX107 BX108 BX109 BX110 BX111 BY102 BY103 BY104 BY105 BY106 BY107 BY108 BY109 BY110 BY111 BZ102 BZ103 BZ104 BZ105 BZ106 BZ107 BZ108 BZ109 BZ110 BZ111 CA102 CA103 CA104 CA105 CA106 CA107 CA108 CA109 CA110 CA111 CB102 CB103 CB104 CB105 CB106 CB107 CB108 CB109 CB110 CB111 CC102 CC103 CC104 CC105 CC106 CC107 CC108 CC109 CC110 CC111 CD102 CD103 CD104 CD105 CD106 CD107 CD108 CD109 CD110 CD111 CE102 CE103 CE104 CE105 CE106 CE107 CE108 CE109 CE110 CE111 CF102 CF103 CF104 CF105 CF106 CF107 CF108 CF109 CF110 CF111 CG102 CG103 CG104 CG105 CG106 CG107 CG108 CG109 CG110 CG111 CH102 CH103 CH104 CH105 CH106 CH107 CH108 CH109 CH110 CH111 CI102 CI103 CI104 CI105 CI106 CI107 CI108 CI109 CI110 CI111 CJ102 CJ103 CJ104 CJ105 CJ106 CJ107 CJ108 CJ109 CJ110 CJ111 CK102 CK103 CK104 CK105 CK106 CK107 CK108 CK109 CK110 CK111 CL102 CL103 CL104 CL105 CL106 CL107 CL108 CL109 CL110 CL111 CM102 CM103 CM104 CM105 CM106 CM107 CM108 CM109 CM110 CM111 CN102 CN103 CN104 CN105 CN106 CN107 CN108 CN109 CN110 CN111 CO102 CO103 CO104 CO105 CO106 CO107 CO108 CO109 CO110 CO111 CP102 CP103 CP104 CP105 CP106 CP107 CP108 CP109 CP110 CP111 CQ102 CQ103 CQ104 CQ105 CQ106 CQ107 CQ108 CQ109 CQ110 CQ111 CR102 CR103 CR104 CR105 CR106 CR107 CR108 CR109 CR110 CR111 CS102 CS103 CS104 CS105 CS106 CS107 CS108 CS109 CS110 CS111 CT102 CT103 CT104 CT105 CT106 CT107 CT108 CT109 CT110 CT111 CU102 CU103 CU104 CU105 CU106 CU107 CU108 CU109 CU110 CU111 CV102 CV103 CV104 CV105 CV106 CV107 CV108 CV109 CV110 CV111 CW102 CW103 CW104 CW105 CW106 CW107 CW108 CW109 CW110 CW111 CX102 CX103 CX104 CX105 CX106 CX107 CX108 CX109 CX110 CX111 CY102 CY103 CY104 CY105 CY106 CY107 CY108 CY109 CY110 CY111 CZ102 CZ103 CZ104 CZ105 CZ106 CZ107 CZ108 CZ109 CZ110 CZ111 DA102 DA103 DA104 DA105 DA106 DA107 DA108 DA109 DA110 DA111 DB102 DB103 DB104 DB105 DB106 DB107 DB108 DB109 DB110 DB111 DC102 DC103 DC104 DC105 DC106 DC107 DC108 DC109 DC110 DC111 DD102 DD103 DD104 DD105 DD106 DD107 DD108 DD109 DD110 DD111 DE102 DE103 DE104 DE105 DE106 DE107 DE108 DE109 DE110 DE111 DF102 DF103 DF104 DF105 DF106 DF107 DF108 DF109 DF110 DF111 DG102 DG103 DG104 DG105 DG106 DG107 DG108 DG109 DG110 DG111 DH102 DH103 DH104 DH105 DH106 DH107 DH108 DH109 DH110 DH111 DI102 DI103 DI104 DI105 DI106 DI107 DI108 DI109 DI110 DI111 DJ102 DJ103 DJ104 DJ105 DJ106 DJ107 DJ108 DJ109 DJ110 DJ111 DK102 DK103 DK104 DK105 DK106 DK107 DK108 DK109 DK110 DK111 DL102 DL103 DL104 DL105 DL106 DL107 DL108 DL109 DL110 DL111 DM102 DM103 DM104 DM105 DM106 DM107 DM108 DM109 DM110 DM111 DN102 DN103 DN104 DN105 DN106 DN107 DN108 DN109 DN110 DN111 DO102 DO103 DO104 DO105 DO106 DO107 DO108 DO109 DO110 DO111 DP102 DP103 DP104 DP105 DP106 DP107 DP108 DP109 DP110 DP111 DQ102 DQ103 DQ104 DQ105 DQ106 DQ107 DQ108 DQ109 DQ110 DQ111 DR102 DR103 DR104 DR105 DR106 DR107 DR108 DR109 DR110 DR111 DS102 DS103 DS104 DS105 DS106 DS107 DS108 DS109 DS110 DS111 DT102 DT103 DT104 DT105 DT106 DT107 DT108 DT109 DT110 DT111 DU102 DU103 DU104 DU105 DU106 DU107 DU108 DU109 DU110 DU111 DV102 DV103 DV104 DV105 DV106 DV107 DV108 DV109 DV110 DV111 DW102 DW103 DW104 DW105 DW106 DW107 DW108 DW109 DW110 DW111 DX102 DX103 DX104 DX105 DX106 DX107 DX108 DX109 DX110 DX111 DY102 DY103 DY104 DY105 DY106 DY107 DY108 DY109 DY110 DY111 DZ102 DZ103 DZ104 DZ105 DZ106 DZ107 DZ108 DZ109 DZ110 DZ111 EA102 EA103 EA104 EA105 EA106 EA107 EA108 EA109 EA110 EA111 EB102 EB103 EB104 EB105 EB106 EB107 EB108 EB109 EB110 EB111 EC102 EC103 EC104 EC105 EC106 EC107 EC108 EC109 EC110 EC111 ED102 ED103 ED104 ED105 ED106 ED107 ED108 ED109 ED110 ED111 EE102 EE103 EE104 EE105 EE106 EE107 EE108 EE109 EE110 EE111 EF102 EF103 EF104 EF105 EF106 EF107 EF108 EF109 EF110 EF111 EG102 EG103 EG104 EG105 EG106 EG107 EG108 EG109 EG110 EG111 EH102 EH103 EH104 EH105 EH106 EH107 EH108 EH109 EH110 EH111 EI102 EI103 EI104 EI105 EI106 EI107 EI108 EI109 EI110 EI111 EJ102 EJ103 EJ104 EJ105 EJ106 EJ107 EJ108 EJ109 EJ110 EJ111 EK102 EK103 EK104 EK105 EK106 EK107 EK108 EK109 EK110 EK111 EL102 EL103 EL104 EL105 EL106 EL107 EL108 EL109 EL110 EL111 EM102 EM103 EM104 EM105 EM106 EM107 EM108 EM109 EM110 EM111 EN102 EN103 EN104 EN105 EN106 EN107 EN108 EN109 EN110 EN111 EO102 EO103 EO104 EO105 EO106 EO107 EO108 EO109 EO110 EO111 EP102 EP103 EP104 EP105 EP106 EP107 EP108 EP109 EP110 EP111 EQ102 EQ103 EQ104 EQ105 EQ106 EQ107 EQ108 EQ109 EQ110 EQ111 ER102 ER103 ER104 ER105 ER106 ER107 ER108 ER109 ER110 ER111 ES102 ES103 ES104 ES105 ES106 ES107 ES108 ES109 ES110 ES111 ET102 ET103 ET104 ET105 ET106 ET107 ET108 ET109 ET110 ET111 EU102 EU103 EU104 EU105 EU106 EU107 EU108 EU109 EU110 EU111 EV102 EV103 EV104 EV105 EV106 EV107 EV108 EV109 EV110 EV111 EW102 EW103 EW104 EW105 EW106 EW107 EW108 EW109 EW110 EW111 EX102 EX103 EX104 EX105 EX106 EX107 EX108 EX109 EX110 EX111 EY102 EY103 EY104 EY105 EY106 EY107 EY108 EY109 EY110 EY111 EZ102 EZ103 EZ104 EZ105 EZ106 EZ107 EZ108 EZ109 EZ110 EZ111 FA102 FA103 FA104 FA105 FA106 FA107 FA108 FA109 FA110 FA111 FB102 FB103 FB104 FB105 FB106 FB107 FB108 FB109 FB110 FB111 FC102 FC103 FC104 FC105 FC106 FC107 FC108 FC109 FC110 FC111 FD102 FD103 FD104 FD105 FD106 FD107 FD108 FD109 FD110 FD111 FE102 FE103 FE104 FE105 FE106 FE107 FE108 FE109 FE110 FE111 FF102 FF103 FF104 FF105 FF106 FF107 FF108 FF109 FF110 FF111 FG102 FG103 FG104 FG105 FG106 FG107 FG108 FG109 FG110 FG111 FH102 FH103 FH104 FH105 FH106 FH107 FH108 FH109 FH110 FH111 FI102 FI103 FI104 FI105 FI106 FI107 FI108 FI109 FI110 FI111 FJ102 FJ103 FJ104 FJ105 FJ106 FJ107 FJ108 FJ109 FJ110 FJ111 FK102 FK103 FK104 FK105 FK106 FK107 FK108 FK109 FK110 FK111 FL102 FL103 FL104 FL105 FL106 FL107 FL108 FL109 FL110 FL111 FM102 FM103 FM104 FM105 FM106 FM107 FM108 FM109 FM110 FM111 FN102 FN103 FN104 FN105 FN106 FN107 FN108 FN109 FN110 FN111 FO102 FO103 FO104 FO105 FO106 FO107 FO108 FO109 FO110 FO111 FP102 FP103 FP104 FP105 FP106 FP107 FP108 FP109 FP110 FP111 FQ102 FQ103 FQ104 FQ105 FQ106 FQ107 FQ108 FQ109 FQ110 FQ111 FR102 FR103 FR104 FR105 FR106 FR107 FR108 FR109 FR110 FR111 FS102 FS103 FS104 FS105 FS106 FS107 FS108 FS109 FS110 FS111 FT102 FT103 FT104 FT105 FT106 FT107 FT108 FT109 FT110 FT111 FU102 FU103 FU104 FU105 FU106 FU107 FU108 FU109 FU110 FU111 FV102 FV103 FV104 FV105 FV106 FV107 FV108 FV109 FV110 FV111 FW102 FW103 FW104 FW105 FW106 FW107 FW108 FW109 FW110 FW111 FX102 FX103 FX104 FX105 FX106 FX107 FX108 FX109 FX110 FX111 FY102 FY103 FY104 FY105 FY106 FY107 FY108 FY109 FY110 FY111 FZ102 FZ103 FZ104 FZ105 FZ106 FZ107 FZ108 FZ109 FZ110 FZ111 GA102 GA103 GA104 GA105 GA106 GA107 GA108 GA109 GA110 GA111 GB102 GB103 GB104 GB105 GB106 GB107 GB108 GB109 GB110 GB111 GC102 GC103 GC104 GC105 GC106 GC107 GC108 GC109 GC110 GC111 GD102 GD103 GD104 GD105 GD106 GD107 GD108 GD109 GD110 GD111 GE102 GE103 GE104 GE105 GE106 GE107 GE108 GE109 GE110 GE111 GF102 GF103 GF104 GF105 GF106 GF107 GF108 GF109 GF110 GF111 GG102 GG103 GG104 GG105 GG106 GG107 GG108 GG109 GG110 GG111 GH102 GH103 GH104 GH105 GH106 GH107 GH108 GH109 GH110 GH111 GI102 GI103 GI104 GI105 GI106 GI107 GI108 GI109 GI110 GI111 GJ102 GJ103 GJ104 GJ105 GJ106 GJ107 GJ108 GJ109 GJ110 GJ111 GK102 GK103 GK104 GK105 GK106 GK107 GK108 GK109 GK110 GK111 GL102 GL103 GL104 GL105 GL106 GL107 GL108 GL109 GL110 GL111 GM102 GM103 GM104 GM105 GM106 GM107 GM108 GM109 GM110 GM111 GN102 GN103 GN104 GN105 GN106 GN107 GN108 GN109 GN110 GN111 GO102 GO103 GO104 GO105 GO106 GO107 GO108 GO109 GO110 GO111 GP102 GP103 GP104 GP105 GP106 GP107 GP108 GP109 GP110 GP111 GQ102 GQ103 GQ104 GQ105 GQ106 GQ107 GQ108 GQ109 GQ110 GQ111 GR102 GR103 GR104 GR105 GR106 GR107 GR108 GR109 GR110 GR111 GS102 GS103 GS104 GS105 GS106 GS107 GS108 GS109 GS110 GS111 GT102 GT103 GT104 GT105 GT106 GT107 GT108 GT109 GT110 GT111 GU102 GU103 GU104 GU105 GU106 GU107 GU108 GU109 GU110 GU111 GV102 GV103 GV104 GV105 GV106 GV107 GV108 GV109 GV110 GV111 GW102 GW103 GW104 GW105 GW106 GW107 GW108 GW109 GW110 GW111 GX102 GX103 GX104 GX105 GX106 GX107 GX108 GX109 GX110 GX111 GY102 GY103 GY104 GY105 GY106 GY107 GY108 GY109 GY110 GY111 GZ102 GZ103 GZ104 GZ105 GZ106 GZ107 GZ108 GZ109 GZ110 GZ111 HA102 HA103 HA104 HA105 HA106 HA107 HA108 HA109 HA110 HA111 HB102 HB103 HB104 HB105 HB106 HB107 HB108 HB109 HB110 HB111 HC102 HC103 HC104 HC105 HC106 HC107 HC108 HC109 HC110 HC111 HD102 HD103 HD104 HD105 HD106 HD107 HD108 HD109 HD110 HD111 HE102 HE103 HE104 HE105 HE106 HE107 HE108 HE109 HE110 HE111 HF102 HF103 HF104 HF105 HF106 HF107 HF108 HF109 HF110 HF111 HG102 HG103 HG104 HG105 HG106 HG107 HG108 HG109 HG110 HG111 HH102 HH103 HH104 HH105 HH106 HH107 HH108 HH109 HH110 HH111 HI102 HI103 HI104 HI105 HI106 HI107 HI108 HI109 HI110 HI111 HJ102 HJ103 HJ104 HJ105 HJ106 HJ107 HJ108 HJ109 HJ110 HJ111 HK102 HK103 HK104 HK105 HK106 HK107 HK108 HK109 HK110 HK111 HL102 HL103 HL104 HL105 HL106 HL107 HL108 HL109 HL110 HL111 HM102 HM103 HM104 HM105 HM106 HM107 HM108 HM109 HM110 HM111 HN102 HN103 HN104 HN105 HN106 HN107 HN108 HN109 HN110 HN111 HO102 HO103 HO104 HO105 HO106 HO107 HO108 HO109 HO110 HO111 HP102 HP103 HP104 HP105 HP106 HP107 HP108 HP109 HP110 HP111 HQ102 HQ103 HQ104 HQ105 HQ106 HQ107 HQ108 HQ109 HQ110 HQ111 HR102 HR103 HR104 HR105 HR106 HR107 HR108 HR109 HR110 HR111 HS102 HS103 HS104 HS105 HS106 HS107 HS108 HS109 HS110 HS111 HT102 HT103 HT104 HT105 HT106 HT107 HT108 HT109 HT110 HT111 HU102 HU103 HU104 HU105 HU106 HU107 HU108 HU109 HU110 HU111 HV102 HV103 HV104 HV105 HV106 HV107 HV108 HV109 HV110 HV111 HW102 HW103 HW104 HW105 HW106 HW107 HW108 HW109 HW110 HW111 HX102 HX103 HX104 HX105 HX106 HX107 HX108 HX109 HX110 HX111 HY102 HY103 HY104 HY105 HY106 HY107 HY108 HY109 HY110 HY111 HZ102 HZ103 HZ104 HZ105 HZ106 HZ107 HZ108 HZ109 HZ110 HZ111 IA102 IA103 IA104 IA105 IA106 IA107 IA108 IA109 IA110 IA111 IB102 IB103 IB104 IB105 IB106 IB107 IB108 IB109 IB110 IB111 IC102 IC103 IC104 IC105 IC106 IC107 IC108 IC109 IC110 IC111 ID102 ID103 ID104 ID105 ID106 ID107 ID108 ID109 ID110 ID111 IE102 IE103 IE104 IE105 IE106 IE107 IE108 IE109 IE110 IE111 IF102 IF103 IF104 IF105 IF106 IF107 IF108 IF109 IF110 IF111 IG102 IG103 IG104 IG105 IG106 IG107 IG108 IG109 IG110 IG111 IH102 IH103 IH104 IH105 IH106 IH107 IH108 IH109 IH110 IH111 II102 II103 II104 II105 II106 II107 II108 II109 II110 II111 IJ102 IJ103 IJ104 IJ105 IJ106 IJ107 IJ108 IJ109 IJ110 IJ111 IK102 IK103 IK104 IK105 IK106 IK107 IK108 IK109 IK110 IK111 IL102 IL103 IL104 IL105 IL106 IL107 IL108 IL109 IL110 IL111 IM102 IM103 IM104 IM105 IM106 IM107 IM108 IM109 IM110 IM111 IN102 IN103 IN104 IN105 IN106 IN107 IN108 IN109 IN110 IN111 IO102 IO103 IO104 IO105 IO106 IO107 IO108 IO109 IO110 IO111 IP102 IP103 IP104 IP105 IP106 IP107 IP108 IP109 IP110 IP111 IQ102 IQ103 IQ104 IQ105 IQ106 IQ107 IQ108 IQ109 IQ110 IQ111 IR102 IR103 IR104 IR105 IR106 IR107 IR108 IR109 IR110 IR111 IS102 IS103 IS104 IS105 IS106 IS107 IS108 IS109 IS110 IS111 IT102 IT103 IT104 IT105 IT106 IT107 IT108 IT109 IT110 IT111 IU102 IU103 IU104 IU105 IU106 IU107 IU108 IU109 IU110 IU111 IV102 IV103 IV104 IV105 IV106 IV107 IV108 IV109 IV110 IV111 IW102 IW103 IW104 IW105 IW106 IW107 IW108 IW109 IW110 IW111 IX102 IX103 IX104 IX105 IX106 IX107 IX108 IX109 IX110 IX111 IY102 IY103 IY104 IY105 IY106 IY107 IY108 IY109 IY110 IY111 IZ102 IZ103 IZ104 IZ105 IZ106 IZ107 IZ108 IZ109 IZ110 IZ111 JA102 JA103 JA104 JA105 JA106 JA107 JA108 JA109 JA110 JA111 JB102 JB103 JB104 JB105 JB106 JB107 JB108 JB109 JB110 JB111 JC102 JC103 JC104 JC105 JC106 JC107 JC108 JC109 JC110 JC111 JD102 JD103 JD104 JD105 JD106 JD107 JD108 JD109 JD110 JD111 JE102 JE103 JE104 JE105 JE106 JE107 JE108 JE109 JE110 JE111 JF102 JF103 JF104 JF105 JF106 JF107 JF108 JF109 JF110 JF111 JG102 JG103 JG104 JG105 JG106 JG107 JG108 JG109 JG110 JG111 JH102 JH103 JH104 JH105 JH106 JH107 JH108 JH109 JH110 JH111 JI102 JI103 JI104 JI105 JI106 JI107 JI108 JI109 JI110 JI111 JJ102 JJ103 JJ104 JJ105 JJ106 JJ107 JJ108 JJ109 JJ110 JJ111 JK102 JK103 JK104 JK105 JK106 JK107 JK108 JK109 JK110 JK111 JL102 JL103 JL104 JL105 JL106 JL107 JL108 JL109 JL110 JL111 JM102 JM103 JM104 JM105 JM106 JM107 JM108 JM109 JM110 JM111 JN102 JN103 JN104 JN105 JN106 JN107 JN108 JN109 JN110 JN111 JO102 JO103 JO104 JO105 JO106 JO107 JO108 JO109 JO110 JO111 JP102 JP103 JP104 JP105 JP106 JP107 JP108 JP109 JP110 JP111 JQ102 JQ103 JQ104 JQ105 JQ106 JQ107 JQ108 JQ109 JQ110 JQ111 JR102 JR103 JR104 JR105 JR106 JR107 JR108 JR109 JR110 JR111 JS102 JS103 JS104 JS105 JS106 JS107 JS108 JS109 JS110 JS111 JT102 JT103 JT104 JT105 JT106 JT107 JT108 JT109 JT110 JT111 JU102 JU103 JU104 JU105 JU106 JU107 JU108 JU109 JU110 JU111 JV102 JV103 JV104 JV105 JV106 JV107 JV108 JV109 JV110 JV111 JW102 JW103 JW104 JW105 JW106 JW107 JW108 JW109 JW110 JW111 JX102 JX103 JX104 JX105 JX106 JX107 JX108 JX109 JX110 JX111 JY102 JY103 JY104 JY105 JY106 JY107 JY108 JY109 JY110 JY111 JZ102 JZ103 JZ104 JZ105 JZ106 JZ107 JZ108 JZ109 JZ110 JZ111 KA102 KA103 KA104 KA105 KA106 KA107 KA108 KA109 KA110 KA111 KB102 KB103 KB104 KB105 KB106 KB107 KB108 KB109 KB110 KB111 KC102 KC103 KC104 KC105 KC106 KC107 KC108 KC109 KC110 KC111 KD102 KD103 KD104 KD105 KD106 KD107 KD108 KD109 KD110 KD111 KE102 KE103 KE104 KE105 KE106 KE107 KE108 KE109 KE110 KE111 KF102 KF103 KF104 KF105 KF106 KF107 KF108 KF109 KF110 KF111 KG102 KG103 KG104 KG105 KG106 KG107 KG108 KG109 KG110 KG111 KH102 KH103 KH104 KH105 KH106 KH107 KH108 KH109 KH110 KH111 KI102 KI103 KI104 KI105 KI106 KI107 KI108 KI109 KI110 KI111 KJ102 KJ103 KJ104 KJ105 KJ106 KJ107 KJ108 KJ109 KJ110 KJ111 KK102 KK103 KK104 KK105 KK106 KK107 KK108 KK109 KK110 KK111 KL102 KL103 KL104 KL105 KL106 KL107 KL108 KL109 KL110 KL111 KM102 KM103 KM104 KM105 KM106 KM107 KM108 KM109 KM110 KM111 KN102 KN103 KN104 KN105 KN106 KN107 KN108 KN109 KN110 KN111 KO102 KO103 KO104 KO105 KO106 KO107 KO108 KO109 KO110 KO111 KP102 KP103 KP104 KP105 KP106 KP107 KP108 KP109 KP110 KP111 KQ102 KQ103 KQ104 KQ105 KQ106 KQ107 KQ108 KQ109 KQ110 KQ111 KR102 KR103 KR104 KR105 KR106 KR107 KR108 KR109 KR110 KR111 KS102 KS103 KS104 KS105 KS106 KS107 KS108 KS109 KS110 KS111 KT102 KT103 KT104 KT105 KT106 KT107 KT108 KT109 KT110 KT111 KU102 KU103 KU104 KU105 KU106 KU107 KU108 KU109 KU110 KU111 KV102 KV103 KV104 KV105 KV106 KV107 KV108 KV109 KV110 KV111 KW102 KW103 KW104 KW105 KW106 KW107 KW108 KW109 KW110 KW111 KX102 KX103 KX104 KX105 KX106 KX107 KX108 KX109 KX110 KX111 KY102 KY103 KY104 KY105 KY106 KY107 KY108 KY109 KY110 KY111 KZ102 KZ103 KZ104 KZ105 KZ106 KZ107 KZ108 KZ109 KZ110 KZ111 LA102 LA103 LA104 LA105 LA106 LA107 LA108 LA109 LA110 LA111 LB102 LB103 LB104 LB105 LB106 LB107 LB108 LB109 LB110 LB111 LC102 LC103 LC104 LC105 LC106 LC107 LC108 LC109 LC110 LC111 LD102 LD103 LD104 LD105 LD106 LD107 LD108 LD109 LD110 LD111 LE102 LE103 LE104 LE105 LE106 LE107 LE108 LE109 LE110 LE111 LF102 LF103 LF104 LF105 LF106 LF107 LF108 LF109 LF110 LF111 LG102 LG103 LG104 LG105 LG106 LG107 LG108 LG109 LG110 LG111 LH102 LH103 LH104 LH105 LH106 LH107 LH108 LH109 LH110 LH111 LI102 LI103 LI104 LI105 LI106 LI107 LI108 LI109 LI110 LI111 LJ102 LJ103 LJ104 LJ105 LJ106 LJ107 LJ108 LJ109 LJ110 LJ111 LK102 LK103 LK104 LK105 LK106 LK107 LK108 LK109 LK110 LK111 LL102 LL103 LL104 LL105 LL106 LL107 LL108 LL109 LL110 LL111 LM102 LM103 LM104 LM105 LM106 LM107 LM108 LM109 LM110 LM111 LN102 LN103 LN104 LN105 LN106 LN107 LN108 LN109 LN110 LN111 LO102 LO103 LO104 LO105 LO106 LO107 LO108 LO109 LO110 LO111 LP102 LP103 LP104 LP105 LP106 LP107 LP108 LP109 LP110 LP111 LQ102 LQ103 LQ104 LQ105 LQ106 LQ107 LQ108 LQ109 LQ110 LQ111 LR102 LR103 LR104 LR105 LR106 LR107 LR108 LR109 LR110 LR111 LS102 LS103 LS104 LS105 LS106 LS107 LS108 LS109 LS110 LS111 LT102 LT103 LT104 LT105 LT106 LT107 LT108 LT109 LT110 LT111 LU102 LU103 LU104 LU105 LU106 LU107 LU108 LU109 LU110 LU111 LV102 LV103 LV104 LV105 LV106 LV107 LV108 LV109 LV110 LV111 LW102 LW103 LW104 LW105 LW106 LW107 LW108 LW109 LW110 LW111 LX102 LX103 LX104 LX105 LX106 LX107 LX108 LX109 LX110 LX111 LY102 LY103 LY104 LY105 LY106 LY107 LY108 LY109 LY110 LY111 LZ102 LZ103 LZ104 LZ105 LZ106 LZ107 LZ108 LZ109 LZ110 LZ111 MA102 MA103 MA104 MA105 MA106 MA107 MA108 MA109 MA110 MA111 MB102 MB103 MB104 MB105 MB106 MB107 MB108 MB109 MB110 MB111 MC102 MC103 MC104 MC105 MC106 MC107 MC108 MC109 MC110 MC111 MD102 MD103 MD104 MD105 MD106 MD107 MD108 MD109 MD110 MD111 ME102 ME103 ME104 ME105 ME106 ME107 ME108 ME109 ME110 ME111 MF102 MF103 MF104 MF105 MF106 MF107 MF108 MF109 MF110 MF111 MG102 MG103 MG104 MG105 MG106 MG107 MG108 MG109 MG110 MG111 MH102 MH103 MH104 MH105 MH106 MH107 MH108 MH109 MH110 MH111 MI102 MI103 MI104 MI105 MI106 MI107 MI108 MI109 MI110 MI111 MJ102 MJ103 MJ104 MJ105 MJ106 MJ107 MJ108 MJ109 MJ110 MJ111 MK102 MK103 MK104 MK105 MK106 MK107 MK108 MK109 MK110 MK111 ML102 ML103 ML104 ML105 ML106 ML107 ML108 ML109 ML110 ML111 MM102 MM103 MM104 MM105 MM106 MM107 MM108 MM109 MM110 MM111 MN102 MN103 MN104 MN105 MN106 MN107 MN108 MN109 MN110 MN111 MO102 MO103 MO104 MO105 MO106 MO107 MO108 MO109 MO110 MO111 MP102 MP103 MP104 MP105 MP106 MP107 MP108 MP109 MP110 MP111 MQ102 MQ103 MQ104 MQ105 MQ106 MQ107 MQ108 MQ109 MQ110 MQ111 MR102 MR103 MR104 MR105 MR106 MR107 MR108 MR109 MR110 MR111 MS102 MS103 MS104 MS105 MS106 MS107 MS108 MS109 MS110 MS111 MT102 MT103 MT104 MT105 MT106 MT107 MT108 MT109 MT110 MT111 MU102 MU103 MU104 MU105 MU106 MU107 MU108 MU109 MU110 MU111 MV102 MV103 MV104 MV105 MV106 MV107 MV108 MV109 MV110 MV111 MW102 MW103 MW104 MW105 MW106 MW107 MW108 MW109 MW110 MW111 MX102 MX103 MX104 MX105 MX106 MX107 MX108 MX109 MX110 MX111 MY102 MY103 MY104 MY105 MY106 MY107 MY108 MY109 MY110 MY111 MZ102 MZ103 MZ104 MZ105 MZ106 MZ107 MZ108 MZ109 MZ110 MZ111 NA102 NA103 NA104 NA105 NA106 NA107 NA108 NA109 NA110 NA111 NB102 NB103 NB104 NB105 NB106 NB107 NB108 NB109 NB110 NB111 NC102 NC103 NC104 NC105 NC106 NC107 NC108 NC109 NC110 NC111 ND102 ND103 ND104 ND105 ND106 ND107 ND108 ND109 ND110 ND111 NE102 NE103 NE104 NE105 NE106 NE107 NE108 NE109 NE110 NE111 NF102 NF103 NF104 NF105 NF106 NF107 NF108 NF109 NF110 NF111 NG102 NG103 NG104 NG105 NG106 NG107 NG108 NG109 NG110 NG111 NH102 NH103 NH104 NH105 NH106 NH107 NH108 NH109 NH110 NH111 NI102 NI103 NI104 NI105 NI106 NI107 NI108 NI109 NI110 NI111 NJ102 NJ103 NJ104 NJ105 NJ106 NJ107 NJ108 NJ109 NJ110 NJ111 NK102 NK103 NK104 NK105 NK106 NK107 NK108 NK109 NK110 NK111 NL102 NL103 NL104 NL105 NL106 NL107 NL108 NL109 NL110 NL111 NM102 NM103 NM104 NM105 NM106 NM107 NM108 NM109 NM110 NM111 NN102 NN103 NN104 NN105 NN106 NN107 NN108 NN109 NN110 NN111 NO102 NO103 NO104 NO105 NO106 NO107 NO108 NO109 NO110 NO111 NP102 NP103 NP104 NP105 NP106 NP107 NP108 NP109 NP110 NP111 NQ102 NQ103 NQ104 NQ105 NQ106 NQ107 NQ108 NQ109 NQ110 NQ111 NR102 NR103 NR104 NR105 NR106 NR107 NR108 NR109 NR110 NR111 NS102 NS103 NS104 NS105 NS106 NS107 NS108 NS109 NS110 NS111 NT102 NT103 NT104 NT105 NT106 NT107 NT108 NT109 NT110 NT111 NU102 NU103 NU104 NU105 NU106 NU107 NU108 NU109 NU110 NU111 NV102 NV103 NV104 NV105 NV106 NV107 NV108 NV109 NV110 NV111 NW102 NW103 NW104 NW105 NW106 NW107 NW108 NW109 NW110 NW111 NX102 NX103 NX104 NX105 NX106 NX107 NX108 NX109 NX110 NX111 NY102 NY103 NY104 NY105 NY106 NY107 NY108 NY109 NY110 NY111 NZ102 NZ103 NZ104 NZ105 NZ106 NZ107 NZ108 NZ109 NZ110 NZ111 OA102 OA103 OA104 OA105 OA106 OA107 OA108 OA109 OA110 OA111 OB102 OB103 OB104 OB105 OB106 OB107 OB108 OB109 OB110 OB111 OC102 OC103 OC104 OC105 OC106 OC107 OC108 OC109 OC110 OC111 OD102 OD103 OD104 OD105 OD106 OD107 OD108 OD109 OD110 OD111 OE102 OE103 OE104 OE105 OE106 OE107 OE108 OE109 OE110 OE111 OF102 OF103 OF104 OF105 OF106 OF107 OF108 OF109 OF110 OF111 OG102 OG103 OG104 OG105 OG106 OG107 OG108 OG109 OG110 OG111 OH102 OH103 OH104 OH105 OH106 OH107 OH108 OH109 OH110 OH111 OI102 OI103 OI104 OI105 OI106 OI107 OI108 OI109 OI110 OI111 OJ102 OJ103 OJ104 OJ105 OJ106 OJ107 OJ108 OJ109 OJ110 OJ111 OK102 OK103 OK104 OK105 OK106 OK107 OK108 OK109 OK110 OK111 OL102 OL103 OL104 OL105 OL106 OL107 OL108 OL109 OL110 OL111 OM102 OM103 OM104 OM105 OM106 OM107 OM108 OM109 OM110 OM111 ON102 ON103 ON104 ON105 ON106 ON107 ON108 ON109 ON110 ON111 OO102 OO103 OO104 OO105 OO106 OO107 OO108 OO109 OO110 OO111 OP102 OP103 OP104 OP105 OP106 OP107 OP108 OP109 OP110 OP111 OQ102 OQ103 OQ104 OQ105 OQ106 OQ107 OQ108 OQ109 OQ110 OQ111 OR102 OR103 OR104 OR105 OR106 OR107 OR108 OR109 OR110 OR111 OS102 OS103 OS104 OS105 OS106 OS107 OS108 OS109 OS110 OS111 OT102 OT103 OT104 OT105 OT106 OT107 OT108 OT109 OT110 OT111 OU102 OU103 OU104 OU105 OU106 OU107 OU108 OU109 OU110 OU111 OV102 OV103 OV104 OV105 OV106 OV107 OV108 OV109 OV110 OV111 OW102 OW103 OW104 OW105 OW106 OW107 OW108 OW109 OW110 OW111 OX102 OX103 OX104 OX105 OX106 OX107 OX108 OX109 OX110 OX111 OY102 OY103 OY104 OY105 OY106 OY107 OY108 OY109 OY110 OY111 OZ102 OZ103 OZ104 OZ105 OZ106 OZ107 OZ108 OZ109 OZ110 OZ111 PA102 PA103 PA104 PA105 PA106 PA107 PA108 PA109 PA110 PA111 PB102 PB103 PB104 PB105 PB106 PB107 PB108 PB109 PB110 PB111 PC102 PC103 PC104 PC105 PC106 PC107 PC108 PC109 PC110 PC111 PD102 PD103 PD104 PD105 PD106 PD107 PD108 PD109 PD110 PD111 PE102 PE103 PE104 PE105 PE106 PE107 PE108 PE109 PE110 PE111 PF102 PF103 PF104 PF105 PF106 PF107 PF108 PF109 PF110 PF111 PG102 PG103 PG104 PG105 PG106 PG107 PG108 PG109 PG110 PG111 PH102 PH103 PH104 PH105 PH106 PH107 PH108 PH109 PH110 PH111 PI102 PI103 PI104 PI105 PI106 PI107 PI108 PI109 PI110 PI111 PJ102 PJ103 PJ104 PJ105 PJ106 PJ107 PJ108 PJ109 PJ110 PJ111 PK102 PK103 PK104 PK105 PK106 PK107 PK108 PK109 PK110 PK111 PL102 PL103 PL104 PL105 PL106 PL107 PL108 PL109 PL110 PL111 PM102 PM103 PM104 PM105 PM106 PM107 PM108 PM109 PM110 PM111 PN102 PN103 PN104 PN105 PN106 PN107 PN108 PN109 PN110 PN111 PO102 PO103 PO104 PO105 PO106 PO107 PO108 PO109 PO110 PO111 PP102 PP103 PP104 PP105 PP106 PP107 PP108 PP109 PP110 PP111 PQ102 PQ103 PQ104 PQ105 PQ106 PQ107 PQ108 PQ109 PQ110 PQ111 PR102 PR103 PR104 PR105 PR106 PR107 PR108 PR109 PR110 PR111 PS102 PS103 PS104 PS105 PS106 PS107 PS108 PS109 PS110 PS111 PT102 PT103 PT104 PT105 PT106 PT107 PT108 PT109 PT110 PT111 PU102 PU103 PU104 PU105 PU106 PU107 PU108 PU109 PU110 PU111 PV102 PV103 PV104 PV105 PV106 PV107 PV108 PV109 PV110 PV111 PW102 PW103 PW104 PW105 PW106 PW107 PW108 PW109 PW110 PW111 PX102 PX103 PX104 PX105 PX106 PX107 PX108 PX109 PX110 PX111 PY102 PY103 PY104 PY105 PY106 PY107 PY108 PY109 PY110 PY111 PZ102 PZ103 PZ104 PZ105 PZ106 PZ107 PZ108 PZ109 PZ110 PZ111 QA102 QA103 QA104 QA105 QA106 QA107 QA108 QA109 QA110 QA111 QB102 QB103 QB104 QB105 QB106 QB107 QB108 QB109 QB110 QB111 QC102 QC103 QC104 QC105 QC106 QC107 QC108 QC109 QC110 QC111 QD102 QD103 QD104 QD105 QD106 QD107 QD108 QD109 QD110 QD111 QE102 QE103 QE104 QE105 QE106 QE107 QE108 QE109 QE110 QE111 QF102 QF103 QF104 QF105 QF106 QF107 QF108 QF109 QF110 QF111 QG102 QG103 QG104 QG105 QG106 QG107 QG108 QG109 QG110 QG111 QH102 QH103 QH104 QH105 QH106 QH107 QH108 QH109 QH110 QH111 QI102 QI103 QI104 QI105 QI106 QI107 QI108 QI109 QI110 QI111 QJ102 QJ103 QJ104 QJ105 QJ106 QJ107 QJ108 QJ109 QJ110 QJ111 QK102 QK103 QK104 QK105 QK106 QK107 QK108 QK109 QK110 QK111 QL102 QL103 QL104 QL105 QL106 QL107 QL108 QL109 QL110 QL111 QM102 QM103 QM104 QM105 QM106 QM107 QM108 QM109 QM110 QM111 QN102 QN103 QN104 QN105 QN106 QN107 QN108 QN109 QN110 QN111 QO102 QO103 QO104 QO105 QO106 QO107 QO108 QO109 QO110 QO111 QP102 QP103 QP104 QP105 QP106 QP107 QP108 QP109 QP110 QP111 QQ102 QQ103 QQ104 QQ105 QQ106 QQ107 QQ108 QQ109 QQ110 QQ111 QR102 QR103 QR104 QR105 QR106 QR107 QR108 QR109 QR110 QR111 QS102 QS103 QS104 QS105 QS106 QS107 QS108 QS109 QS110 QS111 QT102 QT103 QT104 QT105 QT106 QT107 QT108 QT109 QT110 QT111 QU102 QU103 QU104 QU105 QU106 QU107 QU108 QU109 QU110 QU111 QV102 QV103 QV104 QV105 QV106 QV107 QV108 QV109 QV110 QV111 QW102 QW103 QW104 QW105 QW106 QW107 QW108 QW109 QW110 QW111 QX102 QX103 QX104 QX105 QX106 QX107 QX108 QX109 QX110 QX111 QY102 QY103 QY104 QY105 QY106 QY107 QY108 QY109 QY110 QY111 QZ102 QZ103 QZ104 QZ105 QZ106 QZ107 QZ108 QZ109 QZ110 QZ111 RA102 RA103 RA104 RA105 RA106 RA107 RA108 RA109 RA110 RA111 RB102 RB103 RB104 RB105 RB106 RB107 RB108 RB109 RB110 RB111 RC102 RC103 RC104 RC105 RC106 RC107 RC108 RC109 RC110 RC111 RD102 RD103 RD104 RD105 RD106 RD107 RD108 RD109 RD110 RD111 RE102 RE103 RE104 RE105 RE106 RE107 RE108 RE109 RE110 RE111 RF102 RF103 RF104 RF105 RF106 RF107 RF108 RF109 RF110 RF111 RG102 RG103 RG104 RG105 RG106 RG107 RG108 RG109 RG110 RG111 RH102 RH103 RH104 RH105 RH106 RH107 RH108 RH109 RH110 RH111 RI102 RI103 RI104 RI105 RI106 RI107 RI108 RI109 RI110 RI111 RJ102 RJ103 RJ104 RJ105 RJ106 RJ107 RJ108 RJ109 RJ110 RJ111 RK102 RK103 RK104 RK105 RK106 RK107 RK108 RK109 RK110 RK111 RL102 RL103 RL104 RL105 RL106 RL107 RL108 RL109 RL110 RL111 RM102 RM103 RM104 RM105 RM106 RM107 RM108 RM109 RM110 RM111 RN102 RN103 RN104 RN105 RN106 RN107 RN108 RN109 RN110 RN111 RO102 RO103 RO104 RO105 RO106 RO107 RO108 RO109 RO110 RO111 RP102 RP103 RP104 RP105 RP106 RP107 RP108 RP109 RP110 RP111 RQ102 RQ103 RQ104 RQ105 RQ106 RQ107 RQ108 RQ109 RQ110 RQ111 RR102 RR103 RR104 RR105 RR106 RR107 RR108 RR109 RR110 RR111 RS102 RS103 RS104 RS105 RS106 RS107 RS108 RS109 RS110 RS111 RT102 RT103 RT104 RT105 RT106 RT107 RT108 RT109 RT110 RT111 RU102 RU103 RU104 RU105 RU106 RU107 RU108 RU109 RU110 RU111 RV102 RV103 RV104 RV105 RV106 RV107 RV108 RV109 RV110 RV111 RW102 RW103 RW104 RW105 RW106 RW107 RW108 RW109 RW110 RW111 RX102 RX103 RX104 RX105 RX106 RX107 RX108 RX109 RX110 RX111 RY102 RY103 RY104 RY105 RY106 RY107 RY108 RY109 RY110 RY111 RZ102 RZ103 RZ104 RZ105 RZ106 RZ107 RZ108 RZ109 RZ110 RZ111 SA102 SA103 SA104 SA105 SA106 SA107 SA108 SA109 SA110 SA111 SB102 SB103 SB104 SB105 SB106 SB107 SB108 SB109 SB110 SB111 SC102 SC103 SC104 SC105 SC106 SC107 SC108 SC109 SC110 SC111 SD102 SD103 SD104 SD105 SD106 SD107 SD108 SD109 SD110 SD111 SE102 SE103 SE104 SE105 SE106 SE107 SE108 SE109 SE110 SE111 SF102 SF103 SF104 SF105 SF106 SF107 SF108 SF109 SF110 SF111 SG102 SG103 SG104 SG105 SG106 SG107 SG108 SG109 SG110 SG111 SH102 SH103 SH104 SH105 SH106 SH107 SH108 SH109 SH110 SH111 SI102 SI103 SI104 SI105 SI106 SI107 SI108 SI109 SI110 SI111 SJ102 SJ103 SJ104 SJ105 SJ106 SJ107 SJ108 SJ109 SJ110 SJ111</xm:sqref>
+          <xm:sqref>E102:SJ111</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -72548,8 +72692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -72587,16 +72731,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -72607,16 +72751,16 @@
         <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E3">
-        <v>209</v>
+        <v>549</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -72627,16 +72771,16 @@
         <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E4">
-        <v>199</v>
+        <v>899</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -72647,16 +72791,16 @@
         <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E5">
-        <v>169</v>
+        <v>1799</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -72667,16 +72811,16 @@
         <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E6">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -72687,16 +72831,16 @@
         <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E7">
-        <v>549</v>
+        <v>749</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -72707,16 +72851,16 @@
         <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E8">
-        <v>899</v>
+        <v>1349</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -72727,16 +72871,16 @@
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E9">
-        <v>1799</v>
+        <v>2699</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -72747,16 +72891,16 @@
         <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E10">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -72767,16 +72911,16 @@
         <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E11">
-        <v>749</v>
+        <v>209</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -72787,16 +72931,16 @@
         <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E12">
-        <v>1349</v>
+        <v>199</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -72807,16 +72951,16 @@
         <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E13">
-        <v>2699</v>
+        <v>169</v>
       </c>
       <c r="F13">
         <v>0</v>
